--- a/survey/TFM Simon (réponses).xlsx
+++ b/survey/TFM Simon (réponses).xlsx
@@ -9,28 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="991" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="991" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="rep" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="3" r:id="rId2"/>
     <sheet name="agg" sheetId="2" r:id="rId3"/>
-    <sheet name="analyse" sheetId="4" r:id="rId4"/>
+    <sheet name="PartDriveway" sheetId="5" r:id="rId4"/>
+    <sheet name="analyse" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">agg!$A$1:$L$142</definedName>
   </definedNames>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="90">
   <si>
     <t>Horodateur</t>
   </si>
@@ -268,6 +264,39 @@
   <si>
     <t>Pas envie que d'autres gens se garent devant chez moi</t>
   </si>
+  <si>
+    <t>Parce que je n'ai pas d'horaires fixes</t>
+  </si>
+  <si>
+    <t>Ca dépend si on travaille ou pas. Si on a des horaires fixes, ok pour l'idée. Autrement pas..</t>
+  </si>
+  <si>
+    <t>parce que je n'ai pas souvent de mal à trouver une place de parking, la carte riverain fonctionne plutôt bien dans mon quartier (ixelles)</t>
+  </si>
+  <si>
+    <t>Nous sommes déjà deux à nous la partager jamais lubre</t>
+  </si>
+  <si>
+    <t>J'ai des horaires irréguliers et est besoin de ma place régulièrement</t>
+  </si>
+  <si>
+    <t>Car je trouve quand même des places gratuites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop compliqué : je ne voudrais jamais chasser quelqu'un, même de chez moi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parce que les gens se parquent déjà devant mon garage sans me demander mon avis et que je préfèrerais un système où ils s'abstiendraient de le faire ou au minimum me rembourseraient mes coups de fil à répétition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parce qu'on vit une époque de co living, co working et pourquoi pas de co parking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il y aura toujours de l"abus </t>
+  </si>
+  <si>
+    <t>Part, driveway</t>
+  </si>
 </sst>
 </file>
 
@@ -334,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -346,6 +375,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -365,8 +398,861 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Willing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> to be part of the exchange</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analyse!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>analyse!$A$13:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analyse!$B$13:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262F53CF-67B5-4048-A2CC-FD971E0C41A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -662,15 +1548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X148"/>
+  <dimension ref="A1:X212"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+      <selection pane="bottomLeft" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="24" width="21"/>
     <col min="25" max="1025" width="13.85546875"/>
@@ -5700,6 +6586,2996 @@
       </c>
       <c r="X148" s="11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A149" s="14">
+        <v>42863.693806712967</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J149" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K149" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L149" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T149" s="12"/>
+      <c r="U149" s="12"/>
+      <c r="V149" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W149" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X149" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A150" s="14">
+        <v>42863.740403715274</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L150" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T150" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="U150" s="12"/>
+      <c r="V150" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W150" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X150" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A151" s="14">
+        <v>42863.764543738427</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J151" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K151" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L151" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T151" s="12"/>
+      <c r="U151" s="12"/>
+      <c r="V151" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W151" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X151" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A152" s="14">
+        <v>42863.768449687501</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L152" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T152" s="12"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W152" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X152" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A153" s="14">
+        <v>42863.770601747688</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J153" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K153" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L153" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T153" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U153" s="12"/>
+      <c r="V153" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W153" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X153" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A154" s="14">
+        <v>42863.790347499998</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J154" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L154" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T154" s="12"/>
+      <c r="U154" s="12"/>
+      <c r="V154" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W154" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X154" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A155" s="14">
+        <v>42863.790514293985</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I155" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J155" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L155" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T155" s="12"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W155" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X155" s="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A156" s="14">
+        <v>42863.792158460652</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J156" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K156" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="12"/>
+      <c r="U156" s="12"/>
+      <c r="V156" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W156" s="12"/>
+      <c r="X156" s="12"/>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A157" s="14">
+        <v>42863.797104907411</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J157" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K157" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="12"/>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T157" s="12"/>
+      <c r="U157" s="12"/>
+      <c r="V157" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W157" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X157" s="15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A158" s="14">
+        <v>42863.797239652777</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K158" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L158" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="12"/>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="12"/>
+      <c r="U158" s="12"/>
+      <c r="V158" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W158" s="12"/>
+      <c r="X158" s="12"/>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A159" s="14">
+        <v>42863.805010439813</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I159" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K159" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L159" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="12"/>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="12"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T159" s="12"/>
+      <c r="U159" s="12"/>
+      <c r="V159" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W159" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X159" s="15">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A160" s="14">
+        <v>42863.807230034727</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I160" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J160" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K160" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L160" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T160" s="12"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W160" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X160" s="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A161" s="14">
+        <v>42863.826653634256</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I161" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J161" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K161" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L161" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="12"/>
+      <c r="S161" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T161" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U161" s="12"/>
+      <c r="V161" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W161" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X161" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A162" s="14">
+        <v>42863.829332407404</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I162" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J162" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K162" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L162" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T162" s="12"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W162" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X162" s="15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A163" s="14">
+        <v>42863.858430451393</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="12"/>
+      <c r="U163" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V163" s="12"/>
+      <c r="W163" s="12"/>
+      <c r="X163" s="12"/>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A164" s="14">
+        <v>42863.860908460643</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I164" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K164" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L164" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T164" s="12"/>
+      <c r="U164" s="12"/>
+      <c r="V164" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W164" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X164" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A165" s="14">
+        <v>42863.873510949074</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I165" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L165" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T165" s="12"/>
+      <c r="U165" s="12"/>
+      <c r="V165" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W165" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X165" s="15">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A166" s="14">
+        <v>42863.88618987269</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I166" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J166" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K166" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L166" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T166" s="12"/>
+      <c r="U166" s="12"/>
+      <c r="V166" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W166" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X166" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A167" s="14">
+        <v>42863.902305949072</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I167" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J167" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K167" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L167" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T167" s="12"/>
+      <c r="U167" s="12"/>
+      <c r="V167" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W167" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X167" s="15">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A168" s="14">
+        <v>42863.927885381941</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I168" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J168" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K168" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L168" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T168" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="U168" s="12"/>
+      <c r="V168" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W168" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X168" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A169" s="14">
+        <v>42863.929585659724</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J169" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K169" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L169" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T169" s="12"/>
+      <c r="U169" s="12"/>
+      <c r="V169" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W169" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X169" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A170" s="14">
+        <v>42863.932592881945</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J170" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K170" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L170" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T170" s="12"/>
+      <c r="U170" s="12"/>
+      <c r="V170" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W170" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X170" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A171" s="14">
+        <v>42863.946510416667</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J171" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K171" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L171" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T171" s="12"/>
+      <c r="U171" s="12"/>
+      <c r="V171" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W171" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X171" s="15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A172" s="14">
+        <v>42863.947216296292</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J172" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K172" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L172" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T172" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="U172" s="12"/>
+      <c r="V172" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W172" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X172" s="15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A173" s="14">
+        <v>42863.953145601852</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I173" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J173" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K173" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L173" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="12"/>
+      <c r="S173" s="12"/>
+      <c r="T173" s="12"/>
+      <c r="U173" s="12"/>
+      <c r="V173" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W173" s="12"/>
+      <c r="X173" s="12"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A174" s="14">
+        <v>42863.962146342594</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T174" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U174" s="12"/>
+      <c r="V174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X174" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A175" s="14">
+        <v>42863.985543958333</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J175" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K175" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L175" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="12"/>
+      <c r="T175" s="12"/>
+      <c r="U175" s="12"/>
+      <c r="V175" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W175" s="12"/>
+      <c r="X175" s="12"/>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A176" s="14">
+        <v>42864.00134195602</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="12"/>
+      <c r="S176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T176" s="12"/>
+      <c r="U176" s="12"/>
+      <c r="V176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X176" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A177" s="14">
+        <v>42864.040499513889</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J177" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K177" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L177" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="12"/>
+      <c r="S177" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T177" s="12"/>
+      <c r="U177" s="12"/>
+      <c r="V177" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W177" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X177" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A178" s="14">
+        <v>42864.098100266201</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T178" s="12"/>
+      <c r="U178" s="12"/>
+      <c r="V178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X178" s="15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A179" s="14">
+        <v>42864.335281724532</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K179" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L179" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T179" s="12"/>
+      <c r="U179" s="12"/>
+      <c r="V179" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W179" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X179" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A180" s="14">
+        <v>42864.335748807869</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I180" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J180" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K180" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L180" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="12"/>
+      <c r="S180" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T180" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="U180" s="12"/>
+      <c r="V180" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W180" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X180" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A181" s="14">
+        <v>42864.360672152776</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I181" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J181" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K181" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L181" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="12"/>
+      <c r="Q181" s="12"/>
+      <c r="R181" s="12"/>
+      <c r="S181" s="12"/>
+      <c r="T181" s="12"/>
+      <c r="U181" s="12"/>
+      <c r="V181" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W181" s="12"/>
+      <c r="X181" s="12"/>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A182" s="14">
+        <v>42864.366193900467</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I182" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J182" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K182" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L182" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="12"/>
+      <c r="S182" s="12"/>
+      <c r="T182" s="12"/>
+      <c r="U182" s="12"/>
+      <c r="V182" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W182" s="12"/>
+      <c r="X182" s="12"/>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A183" s="14">
+        <v>42864.390492442129</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I183" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J183" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K183" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L183" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="12"/>
+      <c r="S183" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T183" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U183" s="12"/>
+      <c r="V183" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W183" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X183" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A184" s="14">
+        <v>42864.423522627316</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J184" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="12"/>
+      <c r="S184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T184" s="12"/>
+      <c r="U184" s="12"/>
+      <c r="V184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X184" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A185" s="14">
+        <v>42864.439305949076</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K185" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L185" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="12"/>
+      <c r="R185" s="12"/>
+      <c r="S185" s="12"/>
+      <c r="T185" s="12"/>
+      <c r="U185" s="12"/>
+      <c r="V185" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W185" s="12"/>
+      <c r="X185" s="12"/>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A186" s="14">
+        <v>42864.476875081018</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="12"/>
+      <c r="R186" s="12"/>
+      <c r="S186" s="12"/>
+      <c r="T186" s="12"/>
+      <c r="U186" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V186" s="12"/>
+      <c r="W186" s="12"/>
+      <c r="X186" s="12"/>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A187" s="14">
+        <v>42864.579210162032</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I187" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J187" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K187" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L187" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="12"/>
+      <c r="R187" s="12"/>
+      <c r="S187" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T187" s="12"/>
+      <c r="U187" s="12"/>
+      <c r="V187" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W187" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X187" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A188" s="14">
+        <v>42864.596655150468</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J188" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="12"/>
+      <c r="R188" s="12"/>
+      <c r="S188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T188" s="12"/>
+      <c r="U188" s="12"/>
+      <c r="V188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W188" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X188" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A189" s="14">
+        <v>42864.685429803241</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J189" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="12"/>
+      <c r="R189" s="12"/>
+      <c r="S189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T189" s="12"/>
+      <c r="U189" s="12"/>
+      <c r="V189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X189" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A190" s="14">
+        <v>42864.698091678241</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J190" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K190" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L190" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="12"/>
+      <c r="T190" s="12"/>
+      <c r="U190" s="12"/>
+      <c r="V190" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W190" s="12"/>
+      <c r="X190" s="12"/>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A191" s="14">
+        <v>42864.723876562501</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I191" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J191" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K191" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L191" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="12"/>
+      <c r="S191" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T191" s="12"/>
+      <c r="U191" s="12"/>
+      <c r="V191" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W191" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X191" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A192" s="14">
+        <v>42864.726879374997</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I192" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J192" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K192" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L192" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12"/>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="12"/>
+      <c r="S192" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T192" s="12"/>
+      <c r="U192" s="12"/>
+      <c r="V192" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W192" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X192" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A193" s="14">
+        <v>42864.738209861112</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I193" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J193" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K193" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L193" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="12"/>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="12"/>
+      <c r="S193" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T193" s="12"/>
+      <c r="U193" s="12"/>
+      <c r="V193" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W193" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X193" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A194" s="14">
+        <v>42864.772829791662</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I194" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J194" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K194" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L194" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T194" s="12"/>
+      <c r="U194" s="12"/>
+      <c r="V194" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W194" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X194" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A195" s="14">
+        <v>42864.839512708335</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I195" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J195" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K195" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L195" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="12"/>
+      <c r="S195" s="12"/>
+      <c r="T195" s="12"/>
+      <c r="U195" s="12"/>
+      <c r="V195" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W195" s="12"/>
+      <c r="X195" s="12"/>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A196" s="14">
+        <v>42864.907208657409</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I196" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J196" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K196" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L196" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="12"/>
+      <c r="S196" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T196" s="12"/>
+      <c r="U196" s="12"/>
+      <c r="V196" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W196" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X196" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A197" s="14">
+        <v>42865.36415415509</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I197" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J197" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K197" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L197" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="12"/>
+      <c r="T197" s="12"/>
+      <c r="U197" s="12"/>
+      <c r="V197" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W197" s="12"/>
+      <c r="X197" s="12"/>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A198" s="14">
+        <v>42865.376015034723</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I198" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J198" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K198" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L198" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="12"/>
+      <c r="S198" s="12"/>
+      <c r="T198" s="12"/>
+      <c r="U198" s="12"/>
+      <c r="V198" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W198" s="12"/>
+      <c r="X198" s="12"/>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A199" s="14">
+        <v>42865.485722592595</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I199" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J199" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K199" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L199" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="12"/>
+      <c r="S199" s="12"/>
+      <c r="T199" s="12"/>
+      <c r="U199" s="12"/>
+      <c r="V199" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W199" s="12"/>
+      <c r="X199" s="12"/>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A200" s="14">
+        <v>42865.504003888884</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J200" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K200" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L200" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12"/>
+      <c r="S200" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T200" s="12"/>
+      <c r="U200" s="12"/>
+      <c r="V200" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W200" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X200" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A201" s="14">
+        <v>42865.531079872686</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I201" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J201" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K201" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L201" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="12"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="12"/>
+      <c r="R201" s="12"/>
+      <c r="S201" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T201" s="12"/>
+      <c r="U201" s="12"/>
+      <c r="V201" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W201" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X201" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A202" s="14">
+        <v>42865.55378898148</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J202" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K202" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L202" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="12"/>
+      <c r="Q202" s="12"/>
+      <c r="R202" s="12"/>
+      <c r="S202" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T202" s="12"/>
+      <c r="U202" s="12"/>
+      <c r="V202" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W202" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X202" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A203" s="14">
+        <v>42865.60467262732</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I203" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J203" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K203" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L203" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="12"/>
+      <c r="R203" s="12"/>
+      <c r="S203" s="12"/>
+      <c r="T203" s="12"/>
+      <c r="U203" s="12"/>
+      <c r="V203" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W203" s="12"/>
+      <c r="X203" s="12"/>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A204" s="14">
+        <v>42865.785076828703</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I204" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J204" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K204" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L204" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M204" s="12"/>
+      <c r="N204" s="12"/>
+      <c r="O204" s="12"/>
+      <c r="P204" s="12"/>
+      <c r="Q204" s="12"/>
+      <c r="R204" s="12"/>
+      <c r="S204" s="12"/>
+      <c r="T204" s="12"/>
+      <c r="U204" s="12"/>
+      <c r="V204" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W204" s="12"/>
+      <c r="X204" s="12"/>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A205" s="14">
+        <v>42865.839157638889</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I205" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J205" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K205" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L205" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+      <c r="O205" s="12"/>
+      <c r="P205" s="12"/>
+      <c r="Q205" s="12"/>
+      <c r="R205" s="12"/>
+      <c r="S205" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T205" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="U205" s="12"/>
+      <c r="V205" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W205" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X205" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A206" s="14">
+        <v>42865.962324537039</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I206" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J206" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K206" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L206" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M206" s="12"/>
+      <c r="N206" s="12"/>
+      <c r="O206" s="12"/>
+      <c r="P206" s="12"/>
+      <c r="Q206" s="12"/>
+      <c r="R206" s="12"/>
+      <c r="S206" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T206" s="12"/>
+      <c r="U206" s="12"/>
+      <c r="V206" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W206" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X206" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A207" s="14">
+        <v>42866.347380787032</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I207" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J207" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K207" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L207" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="12"/>
+      <c r="P207" s="12"/>
+      <c r="Q207" s="12"/>
+      <c r="R207" s="12"/>
+      <c r="S207" s="12"/>
+      <c r="T207" s="12"/>
+      <c r="U207" s="12"/>
+      <c r="V207" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W207" s="12"/>
+      <c r="X207" s="12"/>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A208" s="14">
+        <v>42866.349562523144</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I208" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J208" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K208" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L208" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="12"/>
+      <c r="P208" s="12"/>
+      <c r="Q208" s="12"/>
+      <c r="R208" s="12"/>
+      <c r="S208" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T208" s="12"/>
+      <c r="U208" s="12"/>
+      <c r="V208" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W208" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X208" s="15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A209" s="14">
+        <v>42866.396402094906</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I209" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J209" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K209" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L209" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
+      <c r="O209" s="12"/>
+      <c r="P209" s="12"/>
+      <c r="Q209" s="12"/>
+      <c r="R209" s="12"/>
+      <c r="S209" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T209" s="12"/>
+      <c r="U209" s="12"/>
+      <c r="V209" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W209" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X209" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A210" s="14">
+        <v>42866.545192627316</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I210" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J210" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K210" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L210" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="12"/>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="12"/>
+      <c r="R210" s="12"/>
+      <c r="S210" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T210" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U210" s="12"/>
+      <c r="V210" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W210" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X210" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A211" s="14">
+        <v>42867.059236631947</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J211" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K211" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L211" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M211" s="12"/>
+      <c r="N211" s="12"/>
+      <c r="O211" s="12"/>
+      <c r="P211" s="12"/>
+      <c r="Q211" s="12"/>
+      <c r="R211" s="12"/>
+      <c r="S211" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T211" s="12"/>
+      <c r="U211" s="12"/>
+      <c r="V211" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W211" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X211" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A212" s="14">
+        <v>42870.049567743059</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I212" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J212" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K212" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L212" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M212" s="12"/>
+      <c r="N212" s="12"/>
+      <c r="O212" s="12"/>
+      <c r="P212" s="12"/>
+      <c r="Q212" s="12"/>
+      <c r="R212" s="12"/>
+      <c r="S212" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T212" s="12"/>
+      <c r="U212" s="12"/>
+      <c r="V212" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W212" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X212" s="15">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -5713,10 +9589,10 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5703125"/>
     <col min="2" max="1025" width="11.28515625"/>
@@ -6043,13 +9919,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y151"/>
+  <dimension ref="A1:Y215"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L145" sqref="L145"/>
+      <selection activeCell="M204" sqref="M204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.42578125"/>
     <col min="2" max="1025" width="11.28515625"/>
@@ -12862,28 +16738,2972 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="K149" s="5"/>
+      <c r="A149" s="4">
+        <f>rep!A149</f>
+        <v>42863.693806712967</v>
+      </c>
+      <c r="B149" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A149),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C149" s="6" t="str">
+        <f ca="1">IF(B149="Français",INDIRECT(ADDRESS(ROW(A149),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A149),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D149" s="7" t="b">
+        <f ca="1">IF(B149="Français",IF(INDIRECT(ADDRESS(ROW(A149),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A149),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="7" t="b">
+        <f ca="1">IF(B149="Français",IF(INDIRECT(ADDRESS(ROW(A149),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A149),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F149" t="b">
+        <f ca="1">IF(B149="Français",IF(INDIRECT(ADDRESS(ROW(A149),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A149),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G149" t="b">
+        <f ca="1">IF(B149="Français",IF(INDIRECT(ADDRESS(ROW(A149),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A149),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H149" t="b">
+        <f ca="1">IF(B149="Français",IF(INDIRECT(ADDRESS(ROW(A149),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A149),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I149" t="b">
+        <f ca="1">IF(B149="Français",IF(INDIRECT(ADDRESS(ROW(A149),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A149),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f ca="1">IF(B149="Français",INDIRECT(ADDRESS(ROW(A149),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A149),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K149" s="5" t="b">
+        <f ca="1">IF(B149="Français",IF(INDIRECT(ADDRESS(ROW(A149),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A149),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="K150" s="5"/>
+      <c r="A150" s="4">
+        <f>rep!A150</f>
+        <v>42863.740403715274</v>
+      </c>
+      <c r="B150" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A150),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C150" s="6" t="str">
+        <f ca="1">IF(B150="Français",INDIRECT(ADDRESS(ROW(A150),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A150),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D150" s="7" t="b">
+        <f ca="1">IF(B150="Français",IF(INDIRECT(ADDRESS(ROW(A150),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A150),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E150" s="7" t="b">
+        <f ca="1">IF(B150="Français",IF(INDIRECT(ADDRESS(ROW(A150),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A150),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F150" t="b">
+        <f ca="1">IF(B150="Français",IF(INDIRECT(ADDRESS(ROW(A150),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A150),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G150" t="b">
+        <f ca="1">IF(B150="Français",IF(INDIRECT(ADDRESS(ROW(A150),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A150),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H150" t="b">
+        <f ca="1">IF(B150="Français",IF(INDIRECT(ADDRESS(ROW(A150),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A150),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I150" t="b">
+        <f ca="1">IF(B150="Français",IF(INDIRECT(ADDRESS(ROW(A150),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A150),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <f ca="1">IF(B150="Français",INDIRECT(ADDRESS(ROW(A150),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A150),config!B$10, , ,"rep")))</f>
+        <v>0.03</v>
+      </c>
+      <c r="K150" s="5" t="b">
+        <f ca="1">IF(B150="Français",IF(INDIRECT(ADDRESS(ROW(A150),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A150),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="K151" s="5"/>
+      <c r="A151" s="4">
+        <f>rep!A151</f>
+        <v>42863.764543738427</v>
+      </c>
+      <c r="B151" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A151),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C151" s="6" t="str">
+        <f ca="1">IF(B151="Français",INDIRECT(ADDRESS(ROW(A151),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A151),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D151" s="7" t="b">
+        <f ca="1">IF(B151="Français",IF(INDIRECT(ADDRESS(ROW(A151),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A151),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E151" s="7" t="b">
+        <f ca="1">IF(B151="Français",IF(INDIRECT(ADDRESS(ROW(A151),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A151),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F151" t="b">
+        <f ca="1">IF(B151="Français",IF(INDIRECT(ADDRESS(ROW(A151),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A151),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G151" t="b">
+        <f ca="1">IF(B151="Français",IF(INDIRECT(ADDRESS(ROW(A151),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A151),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H151" t="b">
+        <f ca="1">IF(B151="Français",IF(INDIRECT(ADDRESS(ROW(A151),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A151),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I151" t="b">
+        <f ca="1">IF(B151="Français",IF(INDIRECT(ADDRESS(ROW(A151),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A151),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <f ca="1">IF(B151="Français",INDIRECT(ADDRESS(ROW(A151),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A151),config!B$10, , ,"rep")))</f>
+        <v>0.05</v>
+      </c>
+      <c r="K151" s="5" t="b">
+        <f ca="1">IF(B151="Français",IF(INDIRECT(ADDRESS(ROW(A151),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A151),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <f>rep!A152</f>
+        <v>42863.768449687501</v>
+      </c>
+      <c r="B152" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A152),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C152" s="6" t="str">
+        <f ca="1">IF(B152="Français",INDIRECT(ADDRESS(ROW(A152),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A152),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D152" s="7" t="b">
+        <f ca="1">IF(B152="Français",IF(INDIRECT(ADDRESS(ROW(A152),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A152),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E152" s="7" t="b">
+        <f ca="1">IF(B152="Français",IF(INDIRECT(ADDRESS(ROW(A152),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A152),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F152" t="b">
+        <f ca="1">IF(B152="Français",IF(INDIRECT(ADDRESS(ROW(A152),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A152),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G152" t="b">
+        <f ca="1">IF(B152="Français",IF(INDIRECT(ADDRESS(ROW(A152),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A152),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="H152" t="b">
+        <f ca="1">IF(B152="Français",IF(INDIRECT(ADDRESS(ROW(A152),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A152),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I152" t="b">
+        <f ca="1">IF(B152="Français",IF(INDIRECT(ADDRESS(ROW(A152),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A152),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <f ca="1">IF(B152="Français",INDIRECT(ADDRESS(ROW(A152),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A152),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K152" s="5" t="b">
+        <f ca="1">IF(B152="Français",IF(INDIRECT(ADDRESS(ROW(A152),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A152),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <f>rep!A153</f>
+        <v>42863.770601747688</v>
+      </c>
+      <c r="B153" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A153),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C153" s="6" t="str">
+        <f ca="1">IF(B153="Français",INDIRECT(ADDRESS(ROW(A153),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A153),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D153" s="7" t="b">
+        <f ca="1">IF(B153="Français",IF(INDIRECT(ADDRESS(ROW(A153),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A153),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E153" s="7" t="b">
+        <f ca="1">IF(B153="Français",IF(INDIRECT(ADDRESS(ROW(A153),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A153),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F153" t="b">
+        <f ca="1">IF(B153="Français",IF(INDIRECT(ADDRESS(ROW(A153),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A153),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G153" t="b">
+        <f ca="1">IF(B153="Français",IF(INDIRECT(ADDRESS(ROW(A153),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A153),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H153" t="b">
+        <f ca="1">IF(B153="Français",IF(INDIRECT(ADDRESS(ROW(A153),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A153),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I153" t="b">
+        <f ca="1">IF(B153="Français",IF(INDIRECT(ADDRESS(ROW(A153),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A153),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <f ca="1">IF(B153="Français",INDIRECT(ADDRESS(ROW(A153),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A153),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K153" s="5" t="b">
+        <f ca="1">IF(B153="Français",IF(INDIRECT(ADDRESS(ROW(A153),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A153),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <f>rep!A154</f>
+        <v>42863.790347499998</v>
+      </c>
+      <c r="B154" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A154),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C154" s="6" t="str">
+        <f ca="1">IF(B154="Français",INDIRECT(ADDRESS(ROW(A154),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A154),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D154" s="7" t="b">
+        <f ca="1">IF(B154="Français",IF(INDIRECT(ADDRESS(ROW(A154),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A154),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E154" s="7" t="b">
+        <f ca="1">IF(B154="Français",IF(INDIRECT(ADDRESS(ROW(A154),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A154),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F154" t="b">
+        <f ca="1">IF(B154="Français",IF(INDIRECT(ADDRESS(ROW(A154),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A154),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G154" t="b">
+        <f ca="1">IF(B154="Français",IF(INDIRECT(ADDRESS(ROW(A154),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A154),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H154" t="b">
+        <f ca="1">IF(B154="Français",IF(INDIRECT(ADDRESS(ROW(A154),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A154),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I154" t="b">
+        <f ca="1">IF(B154="Français",IF(INDIRECT(ADDRESS(ROW(A154),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A154),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f ca="1">IF(B154="Français",INDIRECT(ADDRESS(ROW(A154),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A154),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K154" s="5" t="b">
+        <f ca="1">IF(B154="Français",IF(INDIRECT(ADDRESS(ROW(A154),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A154),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <f>rep!A155</f>
+        <v>42863.790514293985</v>
+      </c>
+      <c r="B155" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A155),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C155" s="6" t="str">
+        <f ca="1">IF(B155="Français",INDIRECT(ADDRESS(ROW(A155),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A155),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D155" s="7" t="b">
+        <f ca="1">IF(B155="Français",IF(INDIRECT(ADDRESS(ROW(A155),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A155),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E155" s="7" t="b">
+        <f ca="1">IF(B155="Français",IF(INDIRECT(ADDRESS(ROW(A155),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A155),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F155" t="b">
+        <f ca="1">IF(B155="Français",IF(INDIRECT(ADDRESS(ROW(A155),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A155),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G155" t="b">
+        <f ca="1">IF(B155="Français",IF(INDIRECT(ADDRESS(ROW(A155),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A155),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H155" t="b">
+        <f ca="1">IF(B155="Français",IF(INDIRECT(ADDRESS(ROW(A155),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A155),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I155" t="b">
+        <f ca="1">IF(B155="Français",IF(INDIRECT(ADDRESS(ROW(A155),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A155),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <f ca="1">IF(B155="Français",INDIRECT(ADDRESS(ROW(A155),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A155),config!B$10, , ,"rep")))</f>
+        <v>0.4</v>
+      </c>
+      <c r="K155" s="5" t="b">
+        <f ca="1">IF(B155="Français",IF(INDIRECT(ADDRESS(ROW(A155),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A155),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <f>rep!A156</f>
+        <v>42863.792158460652</v>
+      </c>
+      <c r="B156" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A156),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C156" s="6" t="str">
+        <f ca="1">IF(B156="Français",INDIRECT(ADDRESS(ROW(A156),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A156),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D156" s="7" t="b">
+        <f ca="1">IF(B156="Français",IF(INDIRECT(ADDRESS(ROW(A156),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A156),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E156" s="7" t="b">
+        <f ca="1">IF(B156="Français",IF(INDIRECT(ADDRESS(ROW(A156),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A156),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F156" t="b">
+        <f ca="1">IF(B156="Français",IF(INDIRECT(ADDRESS(ROW(A156),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A156),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G156" t="b">
+        <f ca="1">IF(B156="Français",IF(INDIRECT(ADDRESS(ROW(A156),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A156),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H156" t="b">
+        <f ca="1">IF(B156="Français",IF(INDIRECT(ADDRESS(ROW(A156),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A156),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I156" t="b">
+        <f ca="1">IF(B156="Français",IF(INDIRECT(ADDRESS(ROW(A156),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A156),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <f ca="1">IF(B156="Français",INDIRECT(ADDRESS(ROW(A156),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A156),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K156" s="5" t="b">
+        <f ca="1">IF(B156="Français",IF(INDIRECT(ADDRESS(ROW(A156),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A156),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <f>rep!A157</f>
+        <v>42863.797104907411</v>
+      </c>
+      <c r="B157" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A157),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C157" s="6" t="str">
+        <f ca="1">IF(B157="Français",INDIRECT(ADDRESS(ROW(A157),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A157),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D157" s="7" t="b">
+        <f ca="1">IF(B157="Français",IF(INDIRECT(ADDRESS(ROW(A157),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A157),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E157" s="7" t="b">
+        <f ca="1">IF(B157="Français",IF(INDIRECT(ADDRESS(ROW(A157),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A157),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F157" t="b">
+        <f ca="1">IF(B157="Français",IF(INDIRECT(ADDRESS(ROW(A157),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A157),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G157" t="b">
+        <f ca="1">IF(B157="Français",IF(INDIRECT(ADDRESS(ROW(A157),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A157),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H157" t="b">
+        <f ca="1">IF(B157="Français",IF(INDIRECT(ADDRESS(ROW(A157),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A157),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I157" t="b">
+        <f ca="1">IF(B157="Français",IF(INDIRECT(ADDRESS(ROW(A157),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A157),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <f ca="1">IF(B157="Français",INDIRECT(ADDRESS(ROW(A157),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A157),config!B$10, , ,"rep")))</f>
+        <v>0.09</v>
+      </c>
+      <c r="K157" s="5" t="b">
+        <f ca="1">IF(B157="Français",IF(INDIRECT(ADDRESS(ROW(A157),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A157),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <f>rep!A158</f>
+        <v>42863.797239652777</v>
+      </c>
+      <c r="B158" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A158),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C158" s="6" t="str">
+        <f ca="1">IF(B158="Français",INDIRECT(ADDRESS(ROW(A158),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A158),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D158" s="7" t="b">
+        <f ca="1">IF(B158="Français",IF(INDIRECT(ADDRESS(ROW(A158),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A158),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E158" s="7" t="b">
+        <f ca="1">IF(B158="Français",IF(INDIRECT(ADDRESS(ROW(A158),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A158),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F158" t="b">
+        <f ca="1">IF(B158="Français",IF(INDIRECT(ADDRESS(ROW(A158),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A158),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G158" t="b">
+        <f ca="1">IF(B158="Français",IF(INDIRECT(ADDRESS(ROW(A158),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A158),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="H158" t="b">
+        <f ca="1">IF(B158="Français",IF(INDIRECT(ADDRESS(ROW(A158),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A158),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I158" t="b">
+        <f ca="1">IF(B158="Français",IF(INDIRECT(ADDRESS(ROW(A158),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A158),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <f ca="1">IF(B158="Français",INDIRECT(ADDRESS(ROW(A158),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A158),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K158" s="5" t="b">
+        <f ca="1">IF(B158="Français",IF(INDIRECT(ADDRESS(ROW(A158),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A158),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <f>rep!A159</f>
+        <v>42863.805010439813</v>
+      </c>
+      <c r="B159" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A159),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C159" s="6" t="str">
+        <f ca="1">IF(B159="Français",INDIRECT(ADDRESS(ROW(A159),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A159),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D159" s="7" t="b">
+        <f ca="1">IF(B159="Français",IF(INDIRECT(ADDRESS(ROW(A159),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A159),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E159" s="7" t="b">
+        <f ca="1">IF(B159="Français",IF(INDIRECT(ADDRESS(ROW(A159),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A159),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F159" t="b">
+        <f ca="1">IF(B159="Français",IF(INDIRECT(ADDRESS(ROW(A159),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A159),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G159" t="b">
+        <f ca="1">IF(B159="Français",IF(INDIRECT(ADDRESS(ROW(A159),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A159),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H159" t="b">
+        <f ca="1">IF(B159="Français",IF(INDIRECT(ADDRESS(ROW(A159),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A159),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I159" t="b">
+        <f ca="1">IF(B159="Français",IF(INDIRECT(ADDRESS(ROW(A159),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A159),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <f ca="1">IF(B159="Français",INDIRECT(ADDRESS(ROW(A159),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A159),config!B$10, , ,"rep")))</f>
+        <v>0.49</v>
+      </c>
+      <c r="K159" s="5" t="b">
+        <f ca="1">IF(B159="Français",IF(INDIRECT(ADDRESS(ROW(A159),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A159),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <f>rep!A160</f>
+        <v>42863.807230034727</v>
+      </c>
+      <c r="B160" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A160),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C160" s="6" t="str">
+        <f ca="1">IF(B160="Français",INDIRECT(ADDRESS(ROW(A160),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A160),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D160" s="7" t="b">
+        <f ca="1">IF(B160="Français",IF(INDIRECT(ADDRESS(ROW(A160),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A160),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E160" s="7" t="b">
+        <f ca="1">IF(B160="Français",IF(INDIRECT(ADDRESS(ROW(A160),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A160),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F160" t="b">
+        <f ca="1">IF(B160="Français",IF(INDIRECT(ADDRESS(ROW(A160),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A160),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G160" t="b">
+        <f ca="1">IF(B160="Français",IF(INDIRECT(ADDRESS(ROW(A160),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A160),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H160" t="b">
+        <f ca="1">IF(B160="Français",IF(INDIRECT(ADDRESS(ROW(A160),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A160),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I160" t="b">
+        <f ca="1">IF(B160="Français",IF(INDIRECT(ADDRESS(ROW(A160),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A160),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <f ca="1">IF(B160="Français",INDIRECT(ADDRESS(ROW(A160),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A160),config!B$10, , ,"rep")))</f>
+        <v>0.4</v>
+      </c>
+      <c r="K160" s="5" t="b">
+        <f ca="1">IF(B160="Français",IF(INDIRECT(ADDRESS(ROW(A160),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A160),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <f>rep!A161</f>
+        <v>42863.826653634256</v>
+      </c>
+      <c r="B161" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A161),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C161" s="6" t="str">
+        <f ca="1">IF(B161="Français",INDIRECT(ADDRESS(ROW(A161),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A161),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D161" s="7" t="b">
+        <f ca="1">IF(B161="Français",IF(INDIRECT(ADDRESS(ROW(A161),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A161),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E161" s="7" t="b">
+        <f ca="1">IF(B161="Français",IF(INDIRECT(ADDRESS(ROW(A161),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A161),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F161" t="b">
+        <f ca="1">IF(B161="Français",IF(INDIRECT(ADDRESS(ROW(A161),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A161),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G161" t="b">
+        <f ca="1">IF(B161="Français",IF(INDIRECT(ADDRESS(ROW(A161),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A161),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H161" t="b">
+        <f ca="1">IF(B161="Français",IF(INDIRECT(ADDRESS(ROW(A161),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A161),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I161" t="b">
+        <f ca="1">IF(B161="Français",IF(INDIRECT(ADDRESS(ROW(A161),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A161),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <f ca="1">IF(B161="Français",INDIRECT(ADDRESS(ROW(A161),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A161),config!B$10, , ,"rep")))</f>
+        <v>0.01</v>
+      </c>
+      <c r="K161" s="5" t="b">
+        <f ca="1">IF(B161="Français",IF(INDIRECT(ADDRESS(ROW(A161),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A161),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <f>rep!A162</f>
+        <v>42863.829332407404</v>
+      </c>
+      <c r="B162" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A162),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C162" s="6" t="str">
+        <f ca="1">IF(B162="Français",INDIRECT(ADDRESS(ROW(A162),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A162),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D162" s="7" t="b">
+        <f ca="1">IF(B162="Français",IF(INDIRECT(ADDRESS(ROW(A162),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A162),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E162" s="7" t="b">
+        <f ca="1">IF(B162="Français",IF(INDIRECT(ADDRESS(ROW(A162),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A162),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F162" t="b">
+        <f ca="1">IF(B162="Français",IF(INDIRECT(ADDRESS(ROW(A162),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A162),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G162" t="b">
+        <f ca="1">IF(B162="Français",IF(INDIRECT(ADDRESS(ROW(A162),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A162),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="H162" t="b">
+        <f ca="1">IF(B162="Français",IF(INDIRECT(ADDRESS(ROW(A162),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A162),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I162" t="b">
+        <f ca="1">IF(B162="Français",IF(INDIRECT(ADDRESS(ROW(A162),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A162),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <f ca="1">IF(B162="Français",INDIRECT(ADDRESS(ROW(A162),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A162),config!B$10, , ,"rep")))</f>
+        <v>0.04</v>
+      </c>
+      <c r="K162" s="5" t="b">
+        <f ca="1">IF(B162="Français",IF(INDIRECT(ADDRESS(ROW(A162),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A162),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <f>rep!A163</f>
+        <v>42863.858430451393</v>
+      </c>
+      <c r="B163" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A163),config!B$1, , ,"rep"))</f>
+        <v>English</v>
+      </c>
+      <c r="C163" s="6" t="str">
+        <f ca="1">IF(B163="Français",INDIRECT(ADDRESS(ROW(A163),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A163),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D163" s="7" t="b">
+        <f ca="1">IF(B163="Français",IF(INDIRECT(ADDRESS(ROW(A163),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A163),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E163" s="7" t="b">
+        <f ca="1">IF(B163="Français",IF(INDIRECT(ADDRESS(ROW(A163),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A163),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F163" t="b">
+        <f ca="1">IF(B163="Français",IF(INDIRECT(ADDRESS(ROW(A163),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A163),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G163" t="b">
+        <f ca="1">IF(B163="Français",IF(INDIRECT(ADDRESS(ROW(A163),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A163),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H163" t="b">
+        <f ca="1">IF(B163="Français",IF(INDIRECT(ADDRESS(ROW(A163),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A163),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I163" t="b">
+        <f ca="1">IF(B163="Français",IF(INDIRECT(ADDRESS(ROW(A163),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A163),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <f ca="1">IF(B163="Français",INDIRECT(ADDRESS(ROW(A163),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A163),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K163" s="5" t="b">
+        <f ca="1">IF(B163="Français",IF(INDIRECT(ADDRESS(ROW(A163),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A163),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <f>rep!A164</f>
+        <v>42863.860908460643</v>
+      </c>
+      <c r="B164" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A164),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C164" s="6" t="str">
+        <f ca="1">IF(B164="Français",INDIRECT(ADDRESS(ROW(A164),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A164),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D164" s="7" t="b">
+        <f ca="1">IF(B164="Français",IF(INDIRECT(ADDRESS(ROW(A164),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A164),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E164" s="7" t="b">
+        <f ca="1">IF(B164="Français",IF(INDIRECT(ADDRESS(ROW(A164),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A164),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F164" t="b">
+        <f ca="1">IF(B164="Français",IF(INDIRECT(ADDRESS(ROW(A164),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A164),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G164" t="b">
+        <f ca="1">IF(B164="Français",IF(INDIRECT(ADDRESS(ROW(A164),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A164),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H164" t="b">
+        <f ca="1">IF(B164="Français",IF(INDIRECT(ADDRESS(ROW(A164),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A164),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I164" t="b">
+        <f ca="1">IF(B164="Français",IF(INDIRECT(ADDRESS(ROW(A164),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A164),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <f ca="1">IF(B164="Français",INDIRECT(ADDRESS(ROW(A164),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A164),config!B$10, , ,"rep")))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K164" s="5" t="b">
+        <f ca="1">IF(B164="Français",IF(INDIRECT(ADDRESS(ROW(A164),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A164),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <f>rep!A165</f>
+        <v>42863.873510949074</v>
+      </c>
+      <c r="B165" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A165),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C165" s="6" t="str">
+        <f ca="1">IF(B165="Français",INDIRECT(ADDRESS(ROW(A165),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A165),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D165" s="7" t="b">
+        <f ca="1">IF(B165="Français",IF(INDIRECT(ADDRESS(ROW(A165),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A165),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E165" s="7" t="b">
+        <f ca="1">IF(B165="Français",IF(INDIRECT(ADDRESS(ROW(A165),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A165),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F165" t="b">
+        <f ca="1">IF(B165="Français",IF(INDIRECT(ADDRESS(ROW(A165),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A165),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G165" t="b">
+        <f ca="1">IF(B165="Français",IF(INDIRECT(ADDRESS(ROW(A165),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A165),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H165" t="b">
+        <f ca="1">IF(B165="Français",IF(INDIRECT(ADDRESS(ROW(A165),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A165),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I165" t="b">
+        <f ca="1">IF(B165="Français",IF(INDIRECT(ADDRESS(ROW(A165),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A165),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <f ca="1">IF(B165="Français",INDIRECT(ADDRESS(ROW(A165),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A165),config!B$10, , ,"rep")))</f>
+        <v>0.32</v>
+      </c>
+      <c r="K165" s="5" t="b">
+        <f ca="1">IF(B165="Français",IF(INDIRECT(ADDRESS(ROW(A165),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A165),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <f>rep!A166</f>
+        <v>42863.88618987269</v>
+      </c>
+      <c r="B166" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A166),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C166" s="6" t="str">
+        <f ca="1">IF(B166="Français",INDIRECT(ADDRESS(ROW(A166),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A166),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D166" s="7" t="b">
+        <f ca="1">IF(B166="Français",IF(INDIRECT(ADDRESS(ROW(A166),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A166),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E166" s="7" t="b">
+        <f ca="1">IF(B166="Français",IF(INDIRECT(ADDRESS(ROW(A166),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A166),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F166" t="b">
+        <f ca="1">IF(B166="Français",IF(INDIRECT(ADDRESS(ROW(A166),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A166),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G166" t="b">
+        <f ca="1">IF(B166="Français",IF(INDIRECT(ADDRESS(ROW(A166),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A166),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="H166" t="b">
+        <f ca="1">IF(B166="Français",IF(INDIRECT(ADDRESS(ROW(A166),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A166),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I166" t="b">
+        <f ca="1">IF(B166="Français",IF(INDIRECT(ADDRESS(ROW(A166),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A166),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <f ca="1">IF(B166="Français",INDIRECT(ADDRESS(ROW(A166),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A166),config!B$10, , ,"rep")))</f>
+        <v>0.2</v>
+      </c>
+      <c r="K166" s="5" t="b">
+        <f ca="1">IF(B166="Français",IF(INDIRECT(ADDRESS(ROW(A166),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A166),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <f>rep!A167</f>
+        <v>42863.902305949072</v>
+      </c>
+      <c r="B167" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A167),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C167" s="6" t="str">
+        <f ca="1">IF(B167="Français",INDIRECT(ADDRESS(ROW(A167),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A167),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D167" s="7" t="b">
+        <f ca="1">IF(B167="Français",IF(INDIRECT(ADDRESS(ROW(A167),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A167),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E167" s="7" t="b">
+        <f ca="1">IF(B167="Français",IF(INDIRECT(ADDRESS(ROW(A167),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A167),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F167" t="b">
+        <f ca="1">IF(B167="Français",IF(INDIRECT(ADDRESS(ROW(A167),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A167),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G167" t="b">
+        <f ca="1">IF(B167="Français",IF(INDIRECT(ADDRESS(ROW(A167),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A167),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="H167" t="b">
+        <f ca="1">IF(B167="Français",IF(INDIRECT(ADDRESS(ROW(A167),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A167),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I167" t="b">
+        <f ca="1">IF(B167="Français",IF(INDIRECT(ADDRESS(ROW(A167),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A167),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <f ca="1">IF(B167="Français",INDIRECT(ADDRESS(ROW(A167),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A167),config!B$10, , ,"rep")))</f>
+        <v>0.98</v>
+      </c>
+      <c r="K167" s="5" t="b">
+        <f ca="1">IF(B167="Français",IF(INDIRECT(ADDRESS(ROW(A167),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A167),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <f>rep!A168</f>
+        <v>42863.927885381941</v>
+      </c>
+      <c r="B168" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A168),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C168" s="6" t="str">
+        <f ca="1">IF(B168="Français",INDIRECT(ADDRESS(ROW(A168),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A168),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D168" s="7" t="b">
+        <f ca="1">IF(B168="Français",IF(INDIRECT(ADDRESS(ROW(A168),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A168),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E168" s="7" t="b">
+        <f ca="1">IF(B168="Français",IF(INDIRECT(ADDRESS(ROW(A168),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A168),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F168" t="b">
+        <f ca="1">IF(B168="Français",IF(INDIRECT(ADDRESS(ROW(A168),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A168),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G168" t="b">
+        <f ca="1">IF(B168="Français",IF(INDIRECT(ADDRESS(ROW(A168),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A168),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H168" t="b">
+        <f ca="1">IF(B168="Français",IF(INDIRECT(ADDRESS(ROW(A168),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A168),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I168" t="b">
+        <f ca="1">IF(B168="Français",IF(INDIRECT(ADDRESS(ROW(A168),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A168),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <f ca="1">IF(B168="Français",INDIRECT(ADDRESS(ROW(A168),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A168),config!B$10, , ,"rep")))</f>
+        <v>0.05</v>
+      </c>
+      <c r="K168" s="5" t="b">
+        <f ca="1">IF(B168="Français",IF(INDIRECT(ADDRESS(ROW(A168),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A168),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <f>rep!A169</f>
+        <v>42863.929585659724</v>
+      </c>
+      <c r="B169" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A169),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C169" s="6" t="str">
+        <f ca="1">IF(B169="Français",INDIRECT(ADDRESS(ROW(A169),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A169),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D169" s="7" t="b">
+        <f ca="1">IF(B169="Français",IF(INDIRECT(ADDRESS(ROW(A169),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A169),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E169" s="7" t="b">
+        <f ca="1">IF(B169="Français",IF(INDIRECT(ADDRESS(ROW(A169),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A169),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F169" t="b">
+        <f ca="1">IF(B169="Français",IF(INDIRECT(ADDRESS(ROW(A169),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A169),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G169" t="b">
+        <f ca="1">IF(B169="Français",IF(INDIRECT(ADDRESS(ROW(A169),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A169),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H169" t="b">
+        <f ca="1">IF(B169="Français",IF(INDIRECT(ADDRESS(ROW(A169),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A169),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I169" t="b">
+        <f ca="1">IF(B169="Français",IF(INDIRECT(ADDRESS(ROW(A169),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A169),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <f ca="1">IF(B169="Français",INDIRECT(ADDRESS(ROW(A169),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A169),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K169" s="5" t="b">
+        <f ca="1">IF(B169="Français",IF(INDIRECT(ADDRESS(ROW(A169),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A169),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <f>rep!A170</f>
+        <v>42863.932592881945</v>
+      </c>
+      <c r="B170" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A170),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C170" s="6" t="str">
+        <f ca="1">IF(B170="Français",INDIRECT(ADDRESS(ROW(A170),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A170),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D170" s="7" t="b">
+        <f ca="1">IF(B170="Français",IF(INDIRECT(ADDRESS(ROW(A170),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A170),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E170" s="7" t="b">
+        <f ca="1">IF(B170="Français",IF(INDIRECT(ADDRESS(ROW(A170),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A170),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F170" t="b">
+        <f ca="1">IF(B170="Français",IF(INDIRECT(ADDRESS(ROW(A170),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A170),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G170" t="b">
+        <f ca="1">IF(B170="Français",IF(INDIRECT(ADDRESS(ROW(A170),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A170),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H170" t="b">
+        <f ca="1">IF(B170="Français",IF(INDIRECT(ADDRESS(ROW(A170),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A170),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I170" t="b">
+        <f ca="1">IF(B170="Français",IF(INDIRECT(ADDRESS(ROW(A170),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A170),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <f ca="1">IF(B170="Français",INDIRECT(ADDRESS(ROW(A170),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A170),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="5" t="b">
+        <f ca="1">IF(B170="Français",IF(INDIRECT(ADDRESS(ROW(A170),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A170),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <f>rep!A171</f>
+        <v>42863.946510416667</v>
+      </c>
+      <c r="B171" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A171),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C171" s="6" t="str">
+        <f ca="1">IF(B171="Français",INDIRECT(ADDRESS(ROW(A171),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A171),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D171" s="7" t="b">
+        <f ca="1">IF(B171="Français",IF(INDIRECT(ADDRESS(ROW(A171),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A171),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E171" s="7" t="b">
+        <f ca="1">IF(B171="Français",IF(INDIRECT(ADDRESS(ROW(A171),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A171),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F171" t="b">
+        <f ca="1">IF(B171="Français",IF(INDIRECT(ADDRESS(ROW(A171),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A171),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G171" t="b">
+        <f ca="1">IF(B171="Français",IF(INDIRECT(ADDRESS(ROW(A171),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A171),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H171" t="b">
+        <f ca="1">IF(B171="Français",IF(INDIRECT(ADDRESS(ROW(A171),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A171),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I171" t="b">
+        <f ca="1">IF(B171="Français",IF(INDIRECT(ADDRESS(ROW(A171),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A171),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <f ca="1">IF(B171="Français",INDIRECT(ADDRESS(ROW(A171),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A171),config!B$10, , ,"rep")))</f>
+        <v>0.08</v>
+      </c>
+      <c r="K171" s="5" t="b">
+        <f ca="1">IF(B171="Français",IF(INDIRECT(ADDRESS(ROW(A171),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A171),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <f>rep!A172</f>
+        <v>42863.947216296292</v>
+      </c>
+      <c r="B172" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A172),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C172" s="6" t="str">
+        <f ca="1">IF(B172="Français",INDIRECT(ADDRESS(ROW(A172),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A172),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D172" s="7" t="b">
+        <f ca="1">IF(B172="Français",IF(INDIRECT(ADDRESS(ROW(A172),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A172),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E172" s="7" t="b">
+        <f ca="1">IF(B172="Français",IF(INDIRECT(ADDRESS(ROW(A172),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A172),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F172" t="b">
+        <f ca="1">IF(B172="Français",IF(INDIRECT(ADDRESS(ROW(A172),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A172),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G172" t="b">
+        <f ca="1">IF(B172="Français",IF(INDIRECT(ADDRESS(ROW(A172),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A172),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H172" t="b">
+        <f ca="1">IF(B172="Français",IF(INDIRECT(ADDRESS(ROW(A172),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A172),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I172" t="b">
+        <f ca="1">IF(B172="Français",IF(INDIRECT(ADDRESS(ROW(A172),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A172),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <f ca="1">IF(B172="Français",INDIRECT(ADDRESS(ROW(A172),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A172),config!B$10, , ,"rep")))</f>
+        <v>0.06</v>
+      </c>
+      <c r="K172" s="5" t="b">
+        <f ca="1">IF(B172="Français",IF(INDIRECT(ADDRESS(ROW(A172),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A172),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <f>rep!A173</f>
+        <v>42863.953145601852</v>
+      </c>
+      <c r="B173" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A173),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C173" s="6" t="str">
+        <f ca="1">IF(B173="Français",INDIRECT(ADDRESS(ROW(A173),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A173),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D173" s="7" t="b">
+        <f ca="1">IF(B173="Français",IF(INDIRECT(ADDRESS(ROW(A173),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A173),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E173" s="7" t="b">
+        <f ca="1">IF(B173="Français",IF(INDIRECT(ADDRESS(ROW(A173),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A173),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F173" t="b">
+        <f ca="1">IF(B173="Français",IF(INDIRECT(ADDRESS(ROW(A173),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A173),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G173" t="b">
+        <f ca="1">IF(B173="Français",IF(INDIRECT(ADDRESS(ROW(A173),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A173),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H173" t="b">
+        <f ca="1">IF(B173="Français",IF(INDIRECT(ADDRESS(ROW(A173),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A173),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I173" t="b">
+        <f ca="1">IF(B173="Français",IF(INDIRECT(ADDRESS(ROW(A173),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A173),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <f ca="1">IF(B173="Français",INDIRECT(ADDRESS(ROW(A173),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A173),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K173" s="5" t="b">
+        <f ca="1">IF(B173="Français",IF(INDIRECT(ADDRESS(ROW(A173),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A173),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <f>rep!A174</f>
+        <v>42863.962146342594</v>
+      </c>
+      <c r="B174" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A174),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C174" s="6" t="str">
+        <f ca="1">IF(B174="Français",INDIRECT(ADDRESS(ROW(A174),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A174),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D174" s="7" t="b">
+        <f ca="1">IF(B174="Français",IF(INDIRECT(ADDRESS(ROW(A174),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A174),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E174" s="7" t="b">
+        <f ca="1">IF(B174="Français",IF(INDIRECT(ADDRESS(ROW(A174),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A174),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F174" t="b">
+        <f ca="1">IF(B174="Français",IF(INDIRECT(ADDRESS(ROW(A174),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A174),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G174" t="b">
+        <f ca="1">IF(B174="Français",IF(INDIRECT(ADDRESS(ROW(A174),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A174),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H174" t="b">
+        <f ca="1">IF(B174="Français",IF(INDIRECT(ADDRESS(ROW(A174),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A174),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I174" t="b">
+        <f ca="1">IF(B174="Français",IF(INDIRECT(ADDRESS(ROW(A174),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A174),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <f ca="1">IF(B174="Français",INDIRECT(ADDRESS(ROW(A174),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A174),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="5" t="b">
+        <f ca="1">IF(B174="Français",IF(INDIRECT(ADDRESS(ROW(A174),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A174),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <f>rep!A175</f>
+        <v>42863.985543958333</v>
+      </c>
+      <c r="B175" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A175),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C175" s="6" t="str">
+        <f ca="1">IF(B175="Français",INDIRECT(ADDRESS(ROW(A175),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A175),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D175" s="7" t="b">
+        <f ca="1">IF(B175="Français",IF(INDIRECT(ADDRESS(ROW(A175),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A175),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E175" s="7" t="b">
+        <f ca="1">IF(B175="Français",IF(INDIRECT(ADDRESS(ROW(A175),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A175),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F175" t="b">
+        <f ca="1">IF(B175="Français",IF(INDIRECT(ADDRESS(ROW(A175),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A175),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G175" t="b">
+        <f ca="1">IF(B175="Français",IF(INDIRECT(ADDRESS(ROW(A175),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A175),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H175" t="b">
+        <f ca="1">IF(B175="Français",IF(INDIRECT(ADDRESS(ROW(A175),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A175),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I175" t="b">
+        <f ca="1">IF(B175="Français",IF(INDIRECT(ADDRESS(ROW(A175),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A175),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <f ca="1">IF(B175="Français",INDIRECT(ADDRESS(ROW(A175),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A175),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K175" s="5" t="b">
+        <f ca="1">IF(B175="Français",IF(INDIRECT(ADDRESS(ROW(A175),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A175),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <f>rep!A176</f>
+        <v>42864.00134195602</v>
+      </c>
+      <c r="B176" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A176),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C176" s="6" t="str">
+        <f ca="1">IF(B176="Français",INDIRECT(ADDRESS(ROW(A176),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A176),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D176" s="7" t="b">
+        <f ca="1">IF(B176="Français",IF(INDIRECT(ADDRESS(ROW(A176),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A176),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E176" s="7" t="b">
+        <f ca="1">IF(B176="Français",IF(INDIRECT(ADDRESS(ROW(A176),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A176),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F176" t="b">
+        <f ca="1">IF(B176="Français",IF(INDIRECT(ADDRESS(ROW(A176),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A176),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G176" t="b">
+        <f ca="1">IF(B176="Français",IF(INDIRECT(ADDRESS(ROW(A176),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A176),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H176" t="b">
+        <f ca="1">IF(B176="Français",IF(INDIRECT(ADDRESS(ROW(A176),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A176),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I176" t="b">
+        <f ca="1">IF(B176="Français",IF(INDIRECT(ADDRESS(ROW(A176),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A176),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f ca="1">IF(B176="Français",INDIRECT(ADDRESS(ROW(A176),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A176),config!B$10, , ,"rep")))</f>
+        <v>0.03</v>
+      </c>
+      <c r="K176" s="5" t="b">
+        <f ca="1">IF(B176="Français",IF(INDIRECT(ADDRESS(ROW(A176),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A176),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <f>rep!A177</f>
+        <v>42864.040499513889</v>
+      </c>
+      <c r="B177" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A177),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C177" s="6" t="str">
+        <f ca="1">IF(B177="Français",INDIRECT(ADDRESS(ROW(A177),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A177),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D177" s="7" t="b">
+        <f ca="1">IF(B177="Français",IF(INDIRECT(ADDRESS(ROW(A177),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A177),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E177" s="7" t="b">
+        <f ca="1">IF(B177="Français",IF(INDIRECT(ADDRESS(ROW(A177),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A177),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F177" t="b">
+        <f ca="1">IF(B177="Français",IF(INDIRECT(ADDRESS(ROW(A177),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A177),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G177" t="b">
+        <f ca="1">IF(B177="Français",IF(INDIRECT(ADDRESS(ROW(A177),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A177),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H177" t="b">
+        <f ca="1">IF(B177="Français",IF(INDIRECT(ADDRESS(ROW(A177),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A177),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I177" t="b">
+        <f ca="1">IF(B177="Français",IF(INDIRECT(ADDRESS(ROW(A177),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A177),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <f ca="1">IF(B177="Français",INDIRECT(ADDRESS(ROW(A177),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A177),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K177" s="5" t="b">
+        <f ca="1">IF(B177="Français",IF(INDIRECT(ADDRESS(ROW(A177),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A177),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <f>rep!A178</f>
+        <v>42864.098100266201</v>
+      </c>
+      <c r="B178" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A178),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C178" s="6" t="str">
+        <f ca="1">IF(B178="Français",INDIRECT(ADDRESS(ROW(A178),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A178),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D178" s="7" t="b">
+        <f ca="1">IF(B178="Français",IF(INDIRECT(ADDRESS(ROW(A178),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A178),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E178" s="7" t="b">
+        <f ca="1">IF(B178="Français",IF(INDIRECT(ADDRESS(ROW(A178),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A178),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F178" t="b">
+        <f ca="1">IF(B178="Français",IF(INDIRECT(ADDRESS(ROW(A178),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A178),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G178" t="b">
+        <f ca="1">IF(B178="Français",IF(INDIRECT(ADDRESS(ROW(A178),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A178),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H178" t="b">
+        <f ca="1">IF(B178="Français",IF(INDIRECT(ADDRESS(ROW(A178),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A178),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I178" t="b">
+        <f ca="1">IF(B178="Français",IF(INDIRECT(ADDRESS(ROW(A178),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A178),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <f ca="1">IF(B178="Français",INDIRECT(ADDRESS(ROW(A178),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A178),config!B$10, , ,"rep")))</f>
+        <v>0.75</v>
+      </c>
+      <c r="K178" s="5" t="b">
+        <f ca="1">IF(B178="Français",IF(INDIRECT(ADDRESS(ROW(A178),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A178),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <f>rep!A179</f>
+        <v>42864.335281724532</v>
+      </c>
+      <c r="B179" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A179),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C179" s="6" t="str">
+        <f ca="1">IF(B179="Français",INDIRECT(ADDRESS(ROW(A179),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A179),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D179" s="7" t="b">
+        <f ca="1">IF(B179="Français",IF(INDIRECT(ADDRESS(ROW(A179),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A179),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E179" s="7" t="b">
+        <f ca="1">IF(B179="Français",IF(INDIRECT(ADDRESS(ROW(A179),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A179),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <f ca="1">IF(B179="Français",IF(INDIRECT(ADDRESS(ROW(A179),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A179),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G179" t="b">
+        <f ca="1">IF(B179="Français",IF(INDIRECT(ADDRESS(ROW(A179),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A179),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H179" t="b">
+        <f ca="1">IF(B179="Français",IF(INDIRECT(ADDRESS(ROW(A179),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A179),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I179" t="b">
+        <f ca="1">IF(B179="Français",IF(INDIRECT(ADDRESS(ROW(A179),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A179),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <f ca="1">IF(B179="Français",INDIRECT(ADDRESS(ROW(A179),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A179),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K179" s="5" t="b">
+        <f ca="1">IF(B179="Français",IF(INDIRECT(ADDRESS(ROW(A179),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A179),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <f>rep!A180</f>
+        <v>42864.335748807869</v>
+      </c>
+      <c r="B180" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A180),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C180" s="6" t="str">
+        <f ca="1">IF(B180="Français",INDIRECT(ADDRESS(ROW(A180),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A180),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D180" s="7" t="b">
+        <f ca="1">IF(B180="Français",IF(INDIRECT(ADDRESS(ROW(A180),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A180),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E180" s="7" t="b">
+        <f ca="1">IF(B180="Français",IF(INDIRECT(ADDRESS(ROW(A180),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A180),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F180" t="b">
+        <f ca="1">IF(B180="Français",IF(INDIRECT(ADDRESS(ROW(A180),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A180),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G180" t="b">
+        <f ca="1">IF(B180="Français",IF(INDIRECT(ADDRESS(ROW(A180),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A180),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H180" t="b">
+        <f ca="1">IF(B180="Français",IF(INDIRECT(ADDRESS(ROW(A180),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A180),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I180" t="b">
+        <f ca="1">IF(B180="Français",IF(INDIRECT(ADDRESS(ROW(A180),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A180),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <f ca="1">IF(B180="Français",INDIRECT(ADDRESS(ROW(A180),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A180),config!B$10, , ,"rep")))</f>
+        <v>0.25</v>
+      </c>
+      <c r="K180" s="5" t="b">
+        <f ca="1">IF(B180="Français",IF(INDIRECT(ADDRESS(ROW(A180),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A180),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <f>rep!A181</f>
+        <v>42864.360672152776</v>
+      </c>
+      <c r="B181" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A181),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C181" s="6" t="str">
+        <f ca="1">IF(B181="Français",INDIRECT(ADDRESS(ROW(A181),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A181),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D181" s="7" t="b">
+        <f ca="1">IF(B181="Français",IF(INDIRECT(ADDRESS(ROW(A181),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A181),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E181" s="7" t="b">
+        <f ca="1">IF(B181="Français",IF(INDIRECT(ADDRESS(ROW(A181),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A181),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F181" t="b">
+        <f ca="1">IF(B181="Français",IF(INDIRECT(ADDRESS(ROW(A181),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A181),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G181" t="b">
+        <f ca="1">IF(B181="Français",IF(INDIRECT(ADDRESS(ROW(A181),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A181),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="H181" t="b">
+        <f ca="1">IF(B181="Français",IF(INDIRECT(ADDRESS(ROW(A181),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A181),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I181" t="b">
+        <f ca="1">IF(B181="Français",IF(INDIRECT(ADDRESS(ROW(A181),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A181),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <f ca="1">IF(B181="Français",INDIRECT(ADDRESS(ROW(A181),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A181),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K181" s="5" t="b">
+        <f ca="1">IF(B181="Français",IF(INDIRECT(ADDRESS(ROW(A181),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A181),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <f>rep!A182</f>
+        <v>42864.366193900467</v>
+      </c>
+      <c r="B182" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A182),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C182" s="6" t="str">
+        <f ca="1">IF(B182="Français",INDIRECT(ADDRESS(ROW(A182),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A182),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D182" s="7" t="b">
+        <f ca="1">IF(B182="Français",IF(INDIRECT(ADDRESS(ROW(A182),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A182),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E182" s="7" t="b">
+        <f ca="1">IF(B182="Français",IF(INDIRECT(ADDRESS(ROW(A182),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A182),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F182" t="b">
+        <f ca="1">IF(B182="Français",IF(INDIRECT(ADDRESS(ROW(A182),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A182),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G182" t="b">
+        <f ca="1">IF(B182="Français",IF(INDIRECT(ADDRESS(ROW(A182),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A182),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H182" t="b">
+        <f ca="1">IF(B182="Français",IF(INDIRECT(ADDRESS(ROW(A182),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A182),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I182" t="b">
+        <f ca="1">IF(B182="Français",IF(INDIRECT(ADDRESS(ROW(A182),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A182),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <f ca="1">IF(B182="Français",INDIRECT(ADDRESS(ROW(A182),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A182),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K182" s="5" t="b">
+        <f ca="1">IF(B182="Français",IF(INDIRECT(ADDRESS(ROW(A182),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A182),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <f>rep!A183</f>
+        <v>42864.390492442129</v>
+      </c>
+      <c r="B183" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A183),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C183" s="6" t="str">
+        <f ca="1">IF(B183="Français",INDIRECT(ADDRESS(ROW(A183),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A183),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D183" s="7" t="b">
+        <f ca="1">IF(B183="Français",IF(INDIRECT(ADDRESS(ROW(A183),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A183),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E183" s="7" t="b">
+        <f ca="1">IF(B183="Français",IF(INDIRECT(ADDRESS(ROW(A183),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A183),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F183" t="b">
+        <f ca="1">IF(B183="Français",IF(INDIRECT(ADDRESS(ROW(A183),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A183),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G183" t="b">
+        <f ca="1">IF(B183="Français",IF(INDIRECT(ADDRESS(ROW(A183),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A183),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H183" t="b">
+        <f ca="1">IF(B183="Français",IF(INDIRECT(ADDRESS(ROW(A183),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A183),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I183" t="b">
+        <f ca="1">IF(B183="Français",IF(INDIRECT(ADDRESS(ROW(A183),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A183),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <f ca="1">IF(B183="Français",INDIRECT(ADDRESS(ROW(A183),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A183),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K183" s="5" t="b">
+        <f ca="1">IF(B183="Français",IF(INDIRECT(ADDRESS(ROW(A183),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A183),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <f>rep!A184</f>
+        <v>42864.423522627316</v>
+      </c>
+      <c r="B184" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A184),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C184" s="6" t="str">
+        <f ca="1">IF(B184="Français",INDIRECT(ADDRESS(ROW(A184),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A184),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D184" s="7" t="b">
+        <f ca="1">IF(B184="Français",IF(INDIRECT(ADDRESS(ROW(A184),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A184),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E184" s="7" t="b">
+        <f ca="1">IF(B184="Français",IF(INDIRECT(ADDRESS(ROW(A184),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A184),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F184" t="b">
+        <f ca="1">IF(B184="Français",IF(INDIRECT(ADDRESS(ROW(A184),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A184),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G184" t="b">
+        <f ca="1">IF(B184="Français",IF(INDIRECT(ADDRESS(ROW(A184),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A184),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H184" t="b">
+        <f ca="1">IF(B184="Français",IF(INDIRECT(ADDRESS(ROW(A184),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A184),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I184" t="b">
+        <f ca="1">IF(B184="Français",IF(INDIRECT(ADDRESS(ROW(A184),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A184),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <f ca="1">IF(B184="Français",INDIRECT(ADDRESS(ROW(A184),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A184),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K184" s="5" t="b">
+        <f ca="1">IF(B184="Français",IF(INDIRECT(ADDRESS(ROW(A184),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A184),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <f>rep!A185</f>
+        <v>42864.439305949076</v>
+      </c>
+      <c r="B185" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A185),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C185" s="6" t="str">
+        <f ca="1">IF(B185="Français",INDIRECT(ADDRESS(ROW(A185),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A185),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D185" s="7" t="b">
+        <f ca="1">IF(B185="Français",IF(INDIRECT(ADDRESS(ROW(A185),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A185),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E185" s="7" t="b">
+        <f ca="1">IF(B185="Français",IF(INDIRECT(ADDRESS(ROW(A185),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A185),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F185" t="b">
+        <f ca="1">IF(B185="Français",IF(INDIRECT(ADDRESS(ROW(A185),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A185),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G185" t="b">
+        <f ca="1">IF(B185="Français",IF(INDIRECT(ADDRESS(ROW(A185),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A185),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H185" t="b">
+        <f ca="1">IF(B185="Français",IF(INDIRECT(ADDRESS(ROW(A185),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A185),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I185" t="b">
+        <f ca="1">IF(B185="Français",IF(INDIRECT(ADDRESS(ROW(A185),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A185),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <f ca="1">IF(B185="Français",INDIRECT(ADDRESS(ROW(A185),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A185),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K185" s="5" t="b">
+        <f ca="1">IF(B185="Français",IF(INDIRECT(ADDRESS(ROW(A185),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A185),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <f>rep!A186</f>
+        <v>42864.476875081018</v>
+      </c>
+      <c r="B186" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A186),config!B$1, , ,"rep"))</f>
+        <v>English</v>
+      </c>
+      <c r="C186" s="6" t="str">
+        <f ca="1">IF(B186="Français",INDIRECT(ADDRESS(ROW(A186),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A186),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D186" s="7" t="b">
+        <f ca="1">IF(B186="Français",IF(INDIRECT(ADDRESS(ROW(A186),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A186),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E186" s="7" t="b">
+        <f ca="1">IF(B186="Français",IF(INDIRECT(ADDRESS(ROW(A186),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A186),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F186" t="b">
+        <f ca="1">IF(B186="Français",IF(INDIRECT(ADDRESS(ROW(A186),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A186),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G186" t="b">
+        <f ca="1">IF(B186="Français",IF(INDIRECT(ADDRESS(ROW(A186),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A186),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H186" t="b">
+        <f ca="1">IF(B186="Français",IF(INDIRECT(ADDRESS(ROW(A186),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A186),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I186" t="b">
+        <f ca="1">IF(B186="Français",IF(INDIRECT(ADDRESS(ROW(A186),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A186),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <f ca="1">IF(B186="Français",INDIRECT(ADDRESS(ROW(A186),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A186),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K186" s="5" t="b">
+        <f ca="1">IF(B186="Français",IF(INDIRECT(ADDRESS(ROW(A186),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A186),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <f>rep!A187</f>
+        <v>42864.579210162032</v>
+      </c>
+      <c r="B187" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A187),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C187" s="6" t="str">
+        <f ca="1">IF(B187="Français",INDIRECT(ADDRESS(ROW(A187),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A187),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D187" s="7" t="b">
+        <f ca="1">IF(B187="Français",IF(INDIRECT(ADDRESS(ROW(A187),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A187),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E187" s="7" t="b">
+        <f ca="1">IF(B187="Français",IF(INDIRECT(ADDRESS(ROW(A187),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A187),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F187" t="b">
+        <f ca="1">IF(B187="Français",IF(INDIRECT(ADDRESS(ROW(A187),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A187),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G187" t="b">
+        <f ca="1">IF(B187="Français",IF(INDIRECT(ADDRESS(ROW(A187),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A187),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H187" t="b">
+        <f ca="1">IF(B187="Français",IF(INDIRECT(ADDRESS(ROW(A187),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A187),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I187" t="b">
+        <f ca="1">IF(B187="Français",IF(INDIRECT(ADDRESS(ROW(A187),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A187),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <f ca="1">IF(B187="Français",INDIRECT(ADDRESS(ROW(A187),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A187),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K187" s="5" t="b">
+        <f ca="1">IF(B187="Français",IF(INDIRECT(ADDRESS(ROW(A187),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A187),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <f>rep!A188</f>
+        <v>42864.596655150468</v>
+      </c>
+      <c r="B188" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A188),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C188" s="6" t="str">
+        <f ca="1">IF(B188="Français",INDIRECT(ADDRESS(ROW(A188),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A188),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D188" s="7" t="b">
+        <f ca="1">IF(B188="Français",IF(INDIRECT(ADDRESS(ROW(A188),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A188),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E188" s="7" t="b">
+        <f ca="1">IF(B188="Français",IF(INDIRECT(ADDRESS(ROW(A188),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A188),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F188" t="b">
+        <f ca="1">IF(B188="Français",IF(INDIRECT(ADDRESS(ROW(A188),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A188),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G188" t="b">
+        <f ca="1">IF(B188="Français",IF(INDIRECT(ADDRESS(ROW(A188),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A188),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H188" t="b">
+        <f ca="1">IF(B188="Français",IF(INDIRECT(ADDRESS(ROW(A188),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A188),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I188" t="b">
+        <f ca="1">IF(B188="Français",IF(INDIRECT(ADDRESS(ROW(A188),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A188),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <f ca="1">IF(B188="Français",INDIRECT(ADDRESS(ROW(A188),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A188),config!B$10, , ,"rep")))</f>
+        <v>0.05</v>
+      </c>
+      <c r="K188" s="5" t="b">
+        <f ca="1">IF(B188="Français",IF(INDIRECT(ADDRESS(ROW(A188),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A188),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <f>rep!A189</f>
+        <v>42864.685429803241</v>
+      </c>
+      <c r="B189" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A189),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C189" s="6" t="str">
+        <f ca="1">IF(B189="Français",INDIRECT(ADDRESS(ROW(A189),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A189),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D189" s="7" t="b">
+        <f ca="1">IF(B189="Français",IF(INDIRECT(ADDRESS(ROW(A189),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A189),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E189" s="7" t="b">
+        <f ca="1">IF(B189="Français",IF(INDIRECT(ADDRESS(ROW(A189),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A189),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F189" t="b">
+        <f ca="1">IF(B189="Français",IF(INDIRECT(ADDRESS(ROW(A189),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A189),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G189" t="b">
+        <f ca="1">IF(B189="Français",IF(INDIRECT(ADDRESS(ROW(A189),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A189),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H189" t="b">
+        <f ca="1">IF(B189="Français",IF(INDIRECT(ADDRESS(ROW(A189),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A189),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I189" t="b">
+        <f ca="1">IF(B189="Français",IF(INDIRECT(ADDRESS(ROW(A189),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A189),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <f ca="1">IF(B189="Français",INDIRECT(ADDRESS(ROW(A189),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A189),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K189" s="5" t="b">
+        <f ca="1">IF(B189="Français",IF(INDIRECT(ADDRESS(ROW(A189),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A189),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <f>rep!A190</f>
+        <v>42864.698091678241</v>
+      </c>
+      <c r="B190" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A190),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C190" s="6" t="str">
+        <f ca="1">IF(B190="Français",INDIRECT(ADDRESS(ROW(A190),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A190),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D190" s="7" t="b">
+        <f ca="1">IF(B190="Français",IF(INDIRECT(ADDRESS(ROW(A190),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A190),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E190" s="7" t="b">
+        <f ca="1">IF(B190="Français",IF(INDIRECT(ADDRESS(ROW(A190),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A190),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F190" t="b">
+        <f ca="1">IF(B190="Français",IF(INDIRECT(ADDRESS(ROW(A190),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A190),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G190" t="b">
+        <f ca="1">IF(B190="Français",IF(INDIRECT(ADDRESS(ROW(A190),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A190),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H190" t="b">
+        <f ca="1">IF(B190="Français",IF(INDIRECT(ADDRESS(ROW(A190),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A190),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I190" t="b">
+        <f ca="1">IF(B190="Français",IF(INDIRECT(ADDRESS(ROW(A190),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A190),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <f ca="1">IF(B190="Français",INDIRECT(ADDRESS(ROW(A190),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A190),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K190" s="5" t="b">
+        <f ca="1">IF(B190="Français",IF(INDIRECT(ADDRESS(ROW(A190),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A190),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <f>rep!A191</f>
+        <v>42864.723876562501</v>
+      </c>
+      <c r="B191" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A191),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C191" s="6" t="str">
+        <f ca="1">IF(B191="Français",INDIRECT(ADDRESS(ROW(A191),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A191),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D191" s="7" t="b">
+        <f ca="1">IF(B191="Français",IF(INDIRECT(ADDRESS(ROW(A191),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A191),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E191" s="7" t="b">
+        <f ca="1">IF(B191="Français",IF(INDIRECT(ADDRESS(ROW(A191),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A191),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F191" t="b">
+        <f ca="1">IF(B191="Français",IF(INDIRECT(ADDRESS(ROW(A191),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A191),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G191" t="b">
+        <f ca="1">IF(B191="Français",IF(INDIRECT(ADDRESS(ROW(A191),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A191),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H191" t="b">
+        <f ca="1">IF(B191="Français",IF(INDIRECT(ADDRESS(ROW(A191),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A191),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I191" t="b">
+        <f ca="1">IF(B191="Français",IF(INDIRECT(ADDRESS(ROW(A191),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A191),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <f ca="1">IF(B191="Français",INDIRECT(ADDRESS(ROW(A191),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A191),config!B$10, , ,"rep")))</f>
+        <v>0.02</v>
+      </c>
+      <c r="K191" s="5" t="b">
+        <f ca="1">IF(B191="Français",IF(INDIRECT(ADDRESS(ROW(A191),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A191),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <f>rep!A192</f>
+        <v>42864.726879374997</v>
+      </c>
+      <c r="B192" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A192),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C192" s="6" t="str">
+        <f ca="1">IF(B192="Français",INDIRECT(ADDRESS(ROW(A192),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A192),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D192" s="7" t="b">
+        <f ca="1">IF(B192="Français",IF(INDIRECT(ADDRESS(ROW(A192),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A192),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E192" s="7" t="b">
+        <f ca="1">IF(B192="Français",IF(INDIRECT(ADDRESS(ROW(A192),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A192),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F192" t="b">
+        <f ca="1">IF(B192="Français",IF(INDIRECT(ADDRESS(ROW(A192),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A192),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G192" t="b">
+        <f ca="1">IF(B192="Français",IF(INDIRECT(ADDRESS(ROW(A192),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A192),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H192" t="b">
+        <f ca="1">IF(B192="Français",IF(INDIRECT(ADDRESS(ROW(A192),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A192),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I192" t="b">
+        <f ca="1">IF(B192="Français",IF(INDIRECT(ADDRESS(ROW(A192),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A192),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <f ca="1">IF(B192="Français",INDIRECT(ADDRESS(ROW(A192),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A192),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K192" s="5" t="b">
+        <f ca="1">IF(B192="Français",IF(INDIRECT(ADDRESS(ROW(A192),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A192),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <f>rep!A193</f>
+        <v>42864.738209861112</v>
+      </c>
+      <c r="B193" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A193),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C193" s="6" t="str">
+        <f ca="1">IF(B193="Français",INDIRECT(ADDRESS(ROW(A193),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A193),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D193" s="7" t="b">
+        <f ca="1">IF(B193="Français",IF(INDIRECT(ADDRESS(ROW(A193),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A193),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E193" s="7" t="b">
+        <f ca="1">IF(B193="Français",IF(INDIRECT(ADDRESS(ROW(A193),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A193),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F193" t="b">
+        <f ca="1">IF(B193="Français",IF(INDIRECT(ADDRESS(ROW(A193),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A193),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G193" t="b">
+        <f ca="1">IF(B193="Français",IF(INDIRECT(ADDRESS(ROW(A193),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A193),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H193" t="b">
+        <f ca="1">IF(B193="Français",IF(INDIRECT(ADDRESS(ROW(A193),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A193),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I193" t="b">
+        <f ca="1">IF(B193="Français",IF(INDIRECT(ADDRESS(ROW(A193),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A193),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <f ca="1">IF(B193="Français",INDIRECT(ADDRESS(ROW(A193),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A193),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K193" s="5" t="b">
+        <f ca="1">IF(B193="Français",IF(INDIRECT(ADDRESS(ROW(A193),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A193),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <f>rep!A194</f>
+        <v>42864.772829791662</v>
+      </c>
+      <c r="B194" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A194),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C194" s="6" t="str">
+        <f ca="1">IF(B194="Français",INDIRECT(ADDRESS(ROW(A194),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A194),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D194" s="7" t="b">
+        <f ca="1">IF(B194="Français",IF(INDIRECT(ADDRESS(ROW(A194),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A194),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E194" s="7" t="b">
+        <f ca="1">IF(B194="Français",IF(INDIRECT(ADDRESS(ROW(A194),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A194),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F194" t="b">
+        <f ca="1">IF(B194="Français",IF(INDIRECT(ADDRESS(ROW(A194),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A194),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G194" t="b">
+        <f ca="1">IF(B194="Français",IF(INDIRECT(ADDRESS(ROW(A194),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A194),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="H194" t="b">
+        <f ca="1">IF(B194="Français",IF(INDIRECT(ADDRESS(ROW(A194),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A194),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I194" t="b">
+        <f ca="1">IF(B194="Français",IF(INDIRECT(ADDRESS(ROW(A194),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A194),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <f ca="1">IF(B194="Français",INDIRECT(ADDRESS(ROW(A194),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A194),config!B$10, , ,"rep")))</f>
+        <v>0.05</v>
+      </c>
+      <c r="K194" s="5" t="b">
+        <f ca="1">IF(B194="Français",IF(INDIRECT(ADDRESS(ROW(A194),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A194),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <f>rep!A195</f>
+        <v>42864.839512708335</v>
+      </c>
+      <c r="B195" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A195),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C195" s="6" t="str">
+        <f ca="1">IF(B195="Français",INDIRECT(ADDRESS(ROW(A195),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A195),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D195" s="7" t="b">
+        <f ca="1">IF(B195="Français",IF(INDIRECT(ADDRESS(ROW(A195),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A195),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E195" s="7" t="b">
+        <f ca="1">IF(B195="Français",IF(INDIRECT(ADDRESS(ROW(A195),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A195),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F195" t="b">
+        <f ca="1">IF(B195="Français",IF(INDIRECT(ADDRESS(ROW(A195),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A195),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G195" t="b">
+        <f ca="1">IF(B195="Français",IF(INDIRECT(ADDRESS(ROW(A195),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A195),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H195" t="b">
+        <f ca="1">IF(B195="Français",IF(INDIRECT(ADDRESS(ROW(A195),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A195),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I195" t="b">
+        <f ca="1">IF(B195="Français",IF(INDIRECT(ADDRESS(ROW(A195),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A195),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <f ca="1">IF(B195="Français",INDIRECT(ADDRESS(ROW(A195),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A195),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K195" s="5" t="b">
+        <f ca="1">IF(B195="Français",IF(INDIRECT(ADDRESS(ROW(A195),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A195),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <f>rep!A196</f>
+        <v>42864.907208657409</v>
+      </c>
+      <c r="B196" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A196),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C196" s="6" t="str">
+        <f ca="1">IF(B196="Français",INDIRECT(ADDRESS(ROW(A196),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A196),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D196" s="7" t="b">
+        <f ca="1">IF(B196="Français",IF(INDIRECT(ADDRESS(ROW(A196),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A196),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E196" s="7" t="b">
+        <f ca="1">IF(B196="Français",IF(INDIRECT(ADDRESS(ROW(A196),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A196),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F196" t="b">
+        <f ca="1">IF(B196="Français",IF(INDIRECT(ADDRESS(ROW(A196),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A196),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G196" t="b">
+        <f ca="1">IF(B196="Français",IF(INDIRECT(ADDRESS(ROW(A196),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A196),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="H196" t="b">
+        <f ca="1">IF(B196="Français",IF(INDIRECT(ADDRESS(ROW(A196),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A196),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I196" t="b">
+        <f ca="1">IF(B196="Français",IF(INDIRECT(ADDRESS(ROW(A196),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A196),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <f ca="1">IF(B196="Français",INDIRECT(ADDRESS(ROW(A196),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A196),config!B$10, , ,"rep")))</f>
+        <v>0.01</v>
+      </c>
+      <c r="K196" s="5" t="b">
+        <f ca="1">IF(B196="Français",IF(INDIRECT(ADDRESS(ROW(A196),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A196),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <f>rep!A197</f>
+        <v>42865.36415415509</v>
+      </c>
+      <c r="B197" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A197),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C197" s="6" t="str">
+        <f ca="1">IF(B197="Français",INDIRECT(ADDRESS(ROW(A197),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A197),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D197" s="7" t="b">
+        <f ca="1">IF(B197="Français",IF(INDIRECT(ADDRESS(ROW(A197),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A197),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E197" s="7" t="b">
+        <f ca="1">IF(B197="Français",IF(INDIRECT(ADDRESS(ROW(A197),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A197),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F197" t="b">
+        <f ca="1">IF(B197="Français",IF(INDIRECT(ADDRESS(ROW(A197),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A197),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G197" t="b">
+        <f ca="1">IF(B197="Français",IF(INDIRECT(ADDRESS(ROW(A197),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A197),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H197" t="b">
+        <f ca="1">IF(B197="Français",IF(INDIRECT(ADDRESS(ROW(A197),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A197),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I197" t="b">
+        <f ca="1">IF(B197="Français",IF(INDIRECT(ADDRESS(ROW(A197),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A197),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <f ca="1">IF(B197="Français",INDIRECT(ADDRESS(ROW(A197),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A197),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K197" s="5" t="b">
+        <f ca="1">IF(B197="Français",IF(INDIRECT(ADDRESS(ROW(A197),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A197),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <f>rep!A198</f>
+        <v>42865.376015034723</v>
+      </c>
+      <c r="B198" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A198),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C198" s="6" t="str">
+        <f ca="1">IF(B198="Français",INDIRECT(ADDRESS(ROW(A198),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A198),config!B$3, , ,"rep")))</f>
+        <v>18-25</v>
+      </c>
+      <c r="D198" s="7" t="b">
+        <f ca="1">IF(B198="Français",IF(INDIRECT(ADDRESS(ROW(A198),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A198),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E198" s="7" t="b">
+        <f ca="1">IF(B198="Français",IF(INDIRECT(ADDRESS(ROW(A198),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A198),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F198" t="b">
+        <f ca="1">IF(B198="Français",IF(INDIRECT(ADDRESS(ROW(A198),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A198),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G198" t="b">
+        <f ca="1">IF(B198="Français",IF(INDIRECT(ADDRESS(ROW(A198),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A198),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H198" t="b">
+        <f ca="1">IF(B198="Français",IF(INDIRECT(ADDRESS(ROW(A198),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A198),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I198" t="b">
+        <f ca="1">IF(B198="Français",IF(INDIRECT(ADDRESS(ROW(A198),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A198),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <f ca="1">IF(B198="Français",INDIRECT(ADDRESS(ROW(A198),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A198),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K198" s="5" t="b">
+        <f ca="1">IF(B198="Français",IF(INDIRECT(ADDRESS(ROW(A198),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A198),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <f>rep!A199</f>
+        <v>42865.485722592595</v>
+      </c>
+      <c r="B199" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A199),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C199" s="6" t="str">
+        <f ca="1">IF(B199="Français",INDIRECT(ADDRESS(ROW(A199),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A199),config!B$3, , ,"rep")))</f>
+        <v>18-25</v>
+      </c>
+      <c r="D199" s="7" t="b">
+        <f ca="1">IF(B199="Français",IF(INDIRECT(ADDRESS(ROW(A199),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A199),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E199" s="7" t="b">
+        <f ca="1">IF(B199="Français",IF(INDIRECT(ADDRESS(ROW(A199),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A199),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F199" t="b">
+        <f ca="1">IF(B199="Français",IF(INDIRECT(ADDRESS(ROW(A199),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A199),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G199" t="b">
+        <f ca="1">IF(B199="Français",IF(INDIRECT(ADDRESS(ROW(A199),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A199),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H199" t="b">
+        <f ca="1">IF(B199="Français",IF(INDIRECT(ADDRESS(ROW(A199),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A199),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I199" t="b">
+        <f ca="1">IF(B199="Français",IF(INDIRECT(ADDRESS(ROW(A199),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A199),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <f ca="1">IF(B199="Français",INDIRECT(ADDRESS(ROW(A199),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A199),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K199" s="5" t="b">
+        <f ca="1">IF(B199="Français",IF(INDIRECT(ADDRESS(ROW(A199),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A199),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <f>rep!A200</f>
+        <v>42865.504003888884</v>
+      </c>
+      <c r="B200" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A200),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C200" s="6" t="str">
+        <f ca="1">IF(B200="Français",INDIRECT(ADDRESS(ROW(A200),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A200),config!B$3, , ,"rep")))</f>
+        <v>36-50</v>
+      </c>
+      <c r="D200" s="7" t="b">
+        <f ca="1">IF(B200="Français",IF(INDIRECT(ADDRESS(ROW(A200),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A200),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E200" s="7" t="b">
+        <f ca="1">IF(B200="Français",IF(INDIRECT(ADDRESS(ROW(A200),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A200),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F200" t="b">
+        <f ca="1">IF(B200="Français",IF(INDIRECT(ADDRESS(ROW(A200),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A200),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G200" t="b">
+        <f ca="1">IF(B200="Français",IF(INDIRECT(ADDRESS(ROW(A200),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A200),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H200" t="b">
+        <f ca="1">IF(B200="Français",IF(INDIRECT(ADDRESS(ROW(A200),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A200),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I200" t="b">
+        <f ca="1">IF(B200="Français",IF(INDIRECT(ADDRESS(ROW(A200),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A200),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <f ca="1">IF(B200="Français",INDIRECT(ADDRESS(ROW(A200),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A200),config!B$10, , ,"rep")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="K200" s="5" t="b">
+        <f ca="1">IF(B200="Français",IF(INDIRECT(ADDRESS(ROW(A200),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A200),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <f>rep!A201</f>
+        <v>42865.531079872686</v>
+      </c>
+      <c r="B201" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A201),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C201" s="6" t="str">
+        <f ca="1">IF(B201="Français",INDIRECT(ADDRESS(ROW(A201),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A201),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D201" s="7" t="b">
+        <f ca="1">IF(B201="Français",IF(INDIRECT(ADDRESS(ROW(A201),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A201),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E201" s="7" t="b">
+        <f ca="1">IF(B201="Français",IF(INDIRECT(ADDRESS(ROW(A201),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A201),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F201" t="b">
+        <f ca="1">IF(B201="Français",IF(INDIRECT(ADDRESS(ROW(A201),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A201),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G201" t="b">
+        <f ca="1">IF(B201="Français",IF(INDIRECT(ADDRESS(ROW(A201),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A201),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H201" t="b">
+        <f ca="1">IF(B201="Français",IF(INDIRECT(ADDRESS(ROW(A201),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A201),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I201" t="b">
+        <f ca="1">IF(B201="Français",IF(INDIRECT(ADDRESS(ROW(A201),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A201),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <f ca="1">IF(B201="Français",INDIRECT(ADDRESS(ROW(A201),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A201),config!B$10, , ,"rep")))</f>
+        <v>0.03</v>
+      </c>
+      <c r="K201" s="5" t="b">
+        <f ca="1">IF(B201="Français",IF(INDIRECT(ADDRESS(ROW(A201),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A201),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <f>rep!A202</f>
+        <v>42865.55378898148</v>
+      </c>
+      <c r="B202" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A202),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C202" s="6" t="str">
+        <f ca="1">IF(B202="Français",INDIRECT(ADDRESS(ROW(A202),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A202),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D202" s="7" t="b">
+        <f ca="1">IF(B202="Français",IF(INDIRECT(ADDRESS(ROW(A202),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A202),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E202" s="7" t="b">
+        <f ca="1">IF(B202="Français",IF(INDIRECT(ADDRESS(ROW(A202),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A202),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F202" t="b">
+        <f ca="1">IF(B202="Français",IF(INDIRECT(ADDRESS(ROW(A202),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A202),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G202" t="b">
+        <f ca="1">IF(B202="Français",IF(INDIRECT(ADDRESS(ROW(A202),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A202),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H202" t="b">
+        <f ca="1">IF(B202="Français",IF(INDIRECT(ADDRESS(ROW(A202),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A202),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I202" t="b">
+        <f ca="1">IF(B202="Français",IF(INDIRECT(ADDRESS(ROW(A202),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A202),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <f ca="1">IF(B202="Français",INDIRECT(ADDRESS(ROW(A202),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A202),config!B$10, , ,"rep")))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K202" s="5" t="b">
+        <f ca="1">IF(B202="Français",IF(INDIRECT(ADDRESS(ROW(A202),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A202),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <f>rep!A203</f>
+        <v>42865.60467262732</v>
+      </c>
+      <c r="B203" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A203),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C203" s="6" t="str">
+        <f ca="1">IF(B203="Français",INDIRECT(ADDRESS(ROW(A203),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A203),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D203" s="7" t="b">
+        <f ca="1">IF(B203="Français",IF(INDIRECT(ADDRESS(ROW(A203),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A203),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E203" s="7" t="b">
+        <f ca="1">IF(B203="Français",IF(INDIRECT(ADDRESS(ROW(A203),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A203),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F203" t="b">
+        <f ca="1">IF(B203="Français",IF(INDIRECT(ADDRESS(ROW(A203),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A203),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G203" t="b">
+        <f ca="1">IF(B203="Français",IF(INDIRECT(ADDRESS(ROW(A203),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A203),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H203" t="b">
+        <f ca="1">IF(B203="Français",IF(INDIRECT(ADDRESS(ROW(A203),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A203),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I203" t="b">
+        <f ca="1">IF(B203="Français",IF(INDIRECT(ADDRESS(ROW(A203),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A203),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <f ca="1">IF(B203="Français",INDIRECT(ADDRESS(ROW(A203),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A203),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K203" s="5" t="b">
+        <f ca="1">IF(B203="Français",IF(INDIRECT(ADDRESS(ROW(A203),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A203),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <f>rep!A204</f>
+        <v>42865.785076828703</v>
+      </c>
+      <c r="B204" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A204),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C204" s="6" t="str">
+        <f ca="1">IF(B204="Français",INDIRECT(ADDRESS(ROW(A204),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A204),config!B$3, , ,"rep")))</f>
+        <v>18-25</v>
+      </c>
+      <c r="D204" s="7" t="b">
+        <f ca="1">IF(B204="Français",IF(INDIRECT(ADDRESS(ROW(A204),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A204),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E204" s="7" t="b">
+        <f ca="1">IF(B204="Français",IF(INDIRECT(ADDRESS(ROW(A204),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A204),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F204" t="b">
+        <f ca="1">IF(B204="Français",IF(INDIRECT(ADDRESS(ROW(A204),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A204),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G204" t="b">
+        <f ca="1">IF(B204="Français",IF(INDIRECT(ADDRESS(ROW(A204),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A204),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H204" t="b">
+        <f ca="1">IF(B204="Français",IF(INDIRECT(ADDRESS(ROW(A204),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A204),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I204" t="b">
+        <f ca="1">IF(B204="Français",IF(INDIRECT(ADDRESS(ROW(A204),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A204),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <f ca="1">IF(B204="Français",INDIRECT(ADDRESS(ROW(A204),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A204),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K204" s="5" t="b">
+        <f ca="1">IF(B204="Français",IF(INDIRECT(ADDRESS(ROW(A204),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A204),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <f>rep!A205</f>
+        <v>42865.839157638889</v>
+      </c>
+      <c r="B205" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A205),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C205" s="6" t="str">
+        <f ca="1">IF(B205="Français",INDIRECT(ADDRESS(ROW(A205),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A205),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D205" s="7" t="b">
+        <f ca="1">IF(B205="Français",IF(INDIRECT(ADDRESS(ROW(A205),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A205),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E205" s="7" t="b">
+        <f ca="1">IF(B205="Français",IF(INDIRECT(ADDRESS(ROW(A205),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A205),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F205" t="b">
+        <f ca="1">IF(B205="Français",IF(INDIRECT(ADDRESS(ROW(A205),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A205),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G205" t="b">
+        <f ca="1">IF(B205="Français",IF(INDIRECT(ADDRESS(ROW(A205),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A205),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H205" t="b">
+        <f ca="1">IF(B205="Français",IF(INDIRECT(ADDRESS(ROW(A205),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A205),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I205" t="b">
+        <f ca="1">IF(B205="Français",IF(INDIRECT(ADDRESS(ROW(A205),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A205),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <f ca="1">IF(B205="Français",INDIRECT(ADDRESS(ROW(A205),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A205),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K205" s="5" t="b">
+        <f ca="1">IF(B205="Français",IF(INDIRECT(ADDRESS(ROW(A205),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A205),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <f>rep!A206</f>
+        <v>42865.962324537039</v>
+      </c>
+      <c r="B206" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A206),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C206" s="6" t="str">
+        <f ca="1">IF(B206="Français",INDIRECT(ADDRESS(ROW(A206),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A206),config!B$3, , ,"rep")))</f>
+        <v>51 et plus</v>
+      </c>
+      <c r="D206" s="7" t="b">
+        <f ca="1">IF(B206="Français",IF(INDIRECT(ADDRESS(ROW(A206),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A206),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E206" s="7" t="b">
+        <f ca="1">IF(B206="Français",IF(INDIRECT(ADDRESS(ROW(A206),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A206),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F206" t="b">
+        <f ca="1">IF(B206="Français",IF(INDIRECT(ADDRESS(ROW(A206),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A206),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="G206" t="b">
+        <f ca="1">IF(B206="Français",IF(INDIRECT(ADDRESS(ROW(A206),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A206),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H206" t="b">
+        <f ca="1">IF(B206="Français",IF(INDIRECT(ADDRESS(ROW(A206),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A206),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I206" t="b">
+        <f ca="1">IF(B206="Français",IF(INDIRECT(ADDRESS(ROW(A206),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A206),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <f ca="1">IF(B206="Français",INDIRECT(ADDRESS(ROW(A206),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A206),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K206" s="5" t="b">
+        <f ca="1">IF(B206="Français",IF(INDIRECT(ADDRESS(ROW(A206),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A206),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <f>rep!A207</f>
+        <v>42866.347380787032</v>
+      </c>
+      <c r="B207" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A207),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C207" s="6" t="str">
+        <f ca="1">IF(B207="Français",INDIRECT(ADDRESS(ROW(A207),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A207),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D207" s="7" t="b">
+        <f ca="1">IF(B207="Français",IF(INDIRECT(ADDRESS(ROW(A207),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A207),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E207" s="7" t="b">
+        <f ca="1">IF(B207="Français",IF(INDIRECT(ADDRESS(ROW(A207),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A207),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F207" t="b">
+        <f ca="1">IF(B207="Français",IF(INDIRECT(ADDRESS(ROW(A207),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A207),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G207" t="b">
+        <f ca="1">IF(B207="Français",IF(INDIRECT(ADDRESS(ROW(A207),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A207),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H207" t="b">
+        <f ca="1">IF(B207="Français",IF(INDIRECT(ADDRESS(ROW(A207),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A207),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="I207" t="b">
+        <f ca="1">IF(B207="Français",IF(INDIRECT(ADDRESS(ROW(A207),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A207),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <f ca="1">IF(B207="Français",INDIRECT(ADDRESS(ROW(A207),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A207),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K207" s="5" t="b">
+        <f ca="1">IF(B207="Français",IF(INDIRECT(ADDRESS(ROW(A207),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A207),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <f>rep!A208</f>
+        <v>42866.349562523144</v>
+      </c>
+      <c r="B208" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A208),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C208" s="6" t="str">
+        <f ca="1">IF(B208="Français",INDIRECT(ADDRESS(ROW(A208),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A208),config!B$3, , ,"rep")))</f>
+        <v>18-25</v>
+      </c>
+      <c r="D208" s="7" t="b">
+        <f ca="1">IF(B208="Français",IF(INDIRECT(ADDRESS(ROW(A208),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A208),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E208" s="7" t="b">
+        <f ca="1">IF(B208="Français",IF(INDIRECT(ADDRESS(ROW(A208),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A208),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F208" t="b">
+        <f ca="1">IF(B208="Français",IF(INDIRECT(ADDRESS(ROW(A208),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A208),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G208" t="b">
+        <f ca="1">IF(B208="Français",IF(INDIRECT(ADDRESS(ROW(A208),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A208),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H208" t="b">
+        <f ca="1">IF(B208="Français",IF(INDIRECT(ADDRESS(ROW(A208),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A208),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I208" t="b">
+        <f ca="1">IF(B208="Français",IF(INDIRECT(ADDRESS(ROW(A208),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A208),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <f ca="1">IF(B208="Français",INDIRECT(ADDRESS(ROW(A208),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A208),config!B$10, , ,"rep")))</f>
+        <v>0.15</v>
+      </c>
+      <c r="K208" s="5" t="b">
+        <f ca="1">IF(B208="Français",IF(INDIRECT(ADDRESS(ROW(A208),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A208),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <f>rep!A209</f>
+        <v>42866.396402094906</v>
+      </c>
+      <c r="B209" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A209),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C209" s="6" t="str">
+        <f ca="1">IF(B209="Français",INDIRECT(ADDRESS(ROW(A209),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A209),config!B$3, , ,"rep")))</f>
+        <v>18-25</v>
+      </c>
+      <c r="D209" s="7" t="b">
+        <f ca="1">IF(B209="Français",IF(INDIRECT(ADDRESS(ROW(A209),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A209),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E209" s="7" t="b">
+        <f ca="1">IF(B209="Français",IF(INDIRECT(ADDRESS(ROW(A209),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A209),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F209" t="b">
+        <f ca="1">IF(B209="Français",IF(INDIRECT(ADDRESS(ROW(A209),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A209),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G209" t="b">
+        <f ca="1">IF(B209="Français",IF(INDIRECT(ADDRESS(ROW(A209),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A209),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H209" t="b">
+        <f ca="1">IF(B209="Français",IF(INDIRECT(ADDRESS(ROW(A209),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A209),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I209" t="b">
+        <f ca="1">IF(B209="Français",IF(INDIRECT(ADDRESS(ROW(A209),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A209),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <f ca="1">IF(B209="Français",INDIRECT(ADDRESS(ROW(A209),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A209),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K209" s="5" t="b">
+        <f ca="1">IF(B209="Français",IF(INDIRECT(ADDRESS(ROW(A209),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A209),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <f>rep!A210</f>
+        <v>42866.545192627316</v>
+      </c>
+      <c r="B210" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A210),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C210" s="6" t="str">
+        <f ca="1">IF(B210="Français",INDIRECT(ADDRESS(ROW(A210),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A210),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D210" s="7" t="b">
+        <f ca="1">IF(B210="Français",IF(INDIRECT(ADDRESS(ROW(A210),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A210),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E210" s="7" t="b">
+        <f ca="1">IF(B210="Français",IF(INDIRECT(ADDRESS(ROW(A210),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A210),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="F210" t="b">
+        <f ca="1">IF(B210="Français",IF(INDIRECT(ADDRESS(ROW(A210),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A210),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G210" t="b">
+        <f ca="1">IF(B210="Français",IF(INDIRECT(ADDRESS(ROW(A210),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A210),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H210" t="b">
+        <f ca="1">IF(B210="Français",IF(INDIRECT(ADDRESS(ROW(A210),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A210),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I210" t="b">
+        <f ca="1">IF(B210="Français",IF(INDIRECT(ADDRESS(ROW(A210),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A210),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <f ca="1">IF(B210="Français",INDIRECT(ADDRESS(ROW(A210),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A210),config!B$10, , ,"rep")))</f>
+        <v>0</v>
+      </c>
+      <c r="K210" s="5" t="b">
+        <f ca="1">IF(B210="Français",IF(INDIRECT(ADDRESS(ROW(A210),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A210),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <f>rep!A211</f>
+        <v>42867.059236631947</v>
+      </c>
+      <c r="B211" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A211),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C211" s="6" t="str">
+        <f ca="1">IF(B211="Français",INDIRECT(ADDRESS(ROW(A211),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A211),config!B$3, , ,"rep")))</f>
+        <v>26-35</v>
+      </c>
+      <c r="D211" s="7" t="b">
+        <f ca="1">IF(B211="Français",IF(INDIRECT(ADDRESS(ROW(A211),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A211),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="E211" s="7" t="b">
+        <f ca="1">IF(B211="Français",IF(INDIRECT(ADDRESS(ROW(A211),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A211),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F211" t="b">
+        <f ca="1">IF(B211="Français",IF(INDIRECT(ADDRESS(ROW(A211),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A211),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G211" t="b">
+        <f ca="1">IF(B211="Français",IF(INDIRECT(ADDRESS(ROW(A211),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A211),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H211" t="b">
+        <f ca="1">IF(B211="Français",IF(INDIRECT(ADDRESS(ROW(A211),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A211),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I211" t="b">
+        <f ca="1">IF(B211="Français",IF(INDIRECT(ADDRESS(ROW(A211),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A211),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <f ca="1">IF(B211="Français",INDIRECT(ADDRESS(ROW(A211),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A211),config!B$10, , ,"rep")))</f>
+        <v>0.05</v>
+      </c>
+      <c r="K211" s="5" t="b">
+        <f ca="1">IF(B211="Français",IF(INDIRECT(ADDRESS(ROW(A211),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A211),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <f>rep!A212</f>
+        <v>42870.049567743059</v>
+      </c>
+      <c r="B212" s="5" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(A212),config!B$1, , ,"rep"))</f>
+        <v>Français</v>
+      </c>
+      <c r="C212" s="6" t="str">
+        <f ca="1">IF(B212="Français",INDIRECT(ADDRESS(ROW(A212),config!C$3, , ,"rep")),INDIRECT(ADDRESS(ROW(A212),config!B$3, , ,"rep")))</f>
+        <v>18-25</v>
+      </c>
+      <c r="D212" s="7" t="b">
+        <f ca="1">IF(B212="Français",IF(INDIRECT(ADDRESS(ROW(A212),config!C$4, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A212),config!B$4, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="E212" s="7" t="b">
+        <f ca="1">IF(B212="Français",IF(INDIRECT(ADDRESS(ROW(A212),config!C$5, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A212),config!B$5, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="F212" t="b">
+        <f ca="1">IF(B212="Français",IF(INDIRECT(ADDRESS(ROW(A212),config!C$6, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A212),config!B$6, , ,"rep"))="Yes",TRUE()))</f>
+        <v>0</v>
+      </c>
+      <c r="G212" t="b">
+        <f ca="1">IF(B212="Français",IF(INDIRECT(ADDRESS(ROW(A212),config!C$7, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A212),config!B$7, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="H212" t="b">
+        <f ca="1">IF(B212="Français",IF(INDIRECT(ADDRESS(ROW(A212),config!C$8, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A212),config!B$8, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="I212" t="b">
+        <f ca="1">IF(B212="Français",IF(INDIRECT(ADDRESS(ROW(A212),config!C$9, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A212),config!B$9, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <f ca="1">IF(B212="Français",INDIRECT(ADDRESS(ROW(A212),config!C$10, , ,"rep")),INDIRECT(ADDRESS(ROW(A212),config!B$10, , ,"rep")))</f>
+        <v>0.8</v>
+      </c>
+      <c r="K212" s="5" t="b">
+        <f ca="1">IF(B212="Français",IF(INDIRECT(ADDRESS(ROW(A212),config!C$11, , ,"rep"))="Oui",TRUE()),IF(INDIRECT(ADDRESS(ROW(A212),config!B$11, , ,"rep"))="Yes",TRUE()))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" s="4"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="K213" s="5"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214" s="4"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+      <c r="K214" s="5"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215" s="4"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="K215" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12900,15 +19720,15 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">AVERAGEIFS(agg!J:J,agg!E:E,TRUE,agg!H:H,TRUE)</f>
-        <v>0.24369047619047629</v>
+        <v>0.22017241379310357</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -12926,31 +19746,31 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="b">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>30</v>
       </c>
       <c r="B6">
         <f ca="1">COUNTIFS(agg!K:K,TRUE,agg!E:E,TRUE,agg!H:H,TRUE)</f>
-        <v>75</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
       </c>
       <c r="G6">
         <f ca="1">COUNTIFS(agg!G:G,TRUE,agg!H:H,TRUE)</f>
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="b">
-        <v>0</v>
+      <c r="A7" t="s">
+        <v>31</v>
       </c>
       <c r="B7">
         <f ca="1">COUNTIFS(agg!K:K,FALSE,agg!E:E,TRUE,agg!H:H,TRUE)</f>
-        <v>9</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
       </c>
       <c r="G7">
         <f>COUNTIFS(agg!P:P,FALSE,agg!J:J,TRUE,agg!M:M,TRUE)</f>
@@ -12959,48 +19779,48 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="b">
-        <v>1</v>
+      <c r="A13" t="s">
+        <v>30</v>
       </c>
       <c r="B13">
         <f ca="1">COUNTIFS(agg!K:K,TRUE,agg!E:E,TRUE,agg!H:H,TRUE,agg!F:F,TRUE)</f>
-        <v>18</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
       </c>
       <c r="G13">
         <f ca="1">COUNTIFS(agg!I:I,TRUE,agg!E:E,TRUE,agg!H:H,TRUE)</f>
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="b">
-        <v>0</v>
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
       <c r="B14">
         <f ca="1">COUNTIFS(agg!K:K,FALSE,agg!E:E,TRUE,agg!H:H,TRUE,agg!F:F,TRUE)</f>
-        <v>3</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
       </c>
       <c r="G14">
         <f ca="1">COUNTIFS(agg!I:I,FALSE,agg!E:E,TRUE,agg!H:H,TRUE)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/survey/TFM Simon (réponses).xlsx
+++ b/survey/TFM Simon (réponses).xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="991" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="991" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rep" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="3" r:id="rId2"/>
     <sheet name="agg" sheetId="2" r:id="rId3"/>
-    <sheet name="PartDriveway" sheetId="5" r:id="rId4"/>
-    <sheet name="analyse" sheetId="4" r:id="rId5"/>
+    <sheet name="analyse" sheetId="4" r:id="rId4"/>
+    <sheet name="PartDriveway" sheetId="5" r:id="rId5"/>
+    <sheet name="Part" sheetId="6" r:id="rId6"/>
+    <sheet name="Struggle" sheetId="7" r:id="rId7"/>
+    <sheet name="drivesmart" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">agg!$A$1:$L$142</definedName>
@@ -306,7 +309,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -341,6 +344,13 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,11 +369,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -376,14 +387,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,74 +426,103 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Willing</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> to be part of the exchange</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analyse!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>analyse!$A$13:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analyse!$C$13:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2142857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>analyse!$B$12</c:f>
@@ -507,7 +550,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+                <c16:uniqueId val="{00000007-74A9-43AF-BAB5-EAB6860A3FC3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -527,10 +570,64 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+                <c16:uniqueId val="{00000009-74A9-43AF-BAB5-EAB6860A3FC3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>analyse!$A$13:$A$14</c:f>
@@ -547,28 +644,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analyse!$B$13:$B$14</c:f>
+              <c:f>analyse!$C$13:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>0.2142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-74A9-43AF-BAB5-EAB6860A3FC3}"/>
+              <c16:uniqueId val="{0000000A-74A9-43AF-BAB5-EAB6860A3FC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -577,13 +675,6 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -600,7 +691,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -620,27 +711,12 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -648,563 +724,1012 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analyse!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5B96-423B-A503-1813754B5F3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5B96-423B-A503-1813754B5F3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>analyse!$A$13:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analyse!$C$6:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.85344827586206895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14655172413793105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5B96-423B-A503-1813754B5F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Nb</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000006-5B96-423B-A503-1813754B5F3C}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000008-5B96-423B-A503-1813754B5F3C}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="bestFit"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$A$13:$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Yes</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$C$13:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0.7857142857142857</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2142857142857143</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-5B96-423B-A503-1813754B5F3C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analyse!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9B7E-4B29-B9C6-D54956A25E57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9B7E-4B29-B9C6-D54956A25E57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>analyse!$A$13:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analyse!$H$13:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.73255813953488369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26744186046511631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9B7E-4B29-B9C6-D54956A25E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Nb</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000006-9B7E-4B29-B9C6-D54956A25E57}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000008-9B7E-4B29-B9C6-D54956A25E57}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="bestFit"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$A$13:$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Yes</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$C$13:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0.7857142857142857</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2142857142857143</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-9B7E-4B29-B9C6-D54956A25E57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analyse!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6588-4F95-8CCC-688601B71468}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6588-4F95-8CCC-688601B71468}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>analyse!$A$13:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analyse!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6588-4F95-8CCC-688601B71468}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Nb</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000006-6588-4F95-8CCC-688601B71468}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000008-6588-4F95-8CCC-688601B71468}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="bestFit"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$A$13:$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Yes</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>analyse!$C$13:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0.7857142857142857</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2142857142857143</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-6588-4F95-8CCC-688601B71468}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,7 +1739,44 @@
     <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -1229,6 +1791,105 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262F53CF-67B5-4048-A2CC-FD971E0C41A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A7530B-9F2B-474B-8257-116D07B7DCFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344BE4F6-CB85-406C-9E3D-82C34E3B804F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EE3B47-7E55-4406-9618-5F6C7AED96F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6589,2992 +7250,2992 @@
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A149" s="14">
+      <c r="A149" s="16">
         <v>42863.693806712967</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="13" t="s">
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I149" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J149" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K149" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L149" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="12"/>
-      <c r="Q149" s="12"/>
-      <c r="R149" s="12"/>
-      <c r="S149" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T149" s="12"/>
-      <c r="U149" s="12"/>
-      <c r="V149" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W149" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X149" s="15">
+      <c r="I149" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J149" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K149" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L149" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+      <c r="R149" s="14"/>
+      <c r="S149" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T149" s="14"/>
+      <c r="U149" s="14"/>
+      <c r="V149" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W149" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X149" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A150" s="14">
+      <c r="A150" s="16">
         <v>42863.740403715274</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="13" t="s">
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I150" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J150" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K150" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L150" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M150" s="12"/>
-      <c r="N150" s="12"/>
-      <c r="O150" s="12"/>
-      <c r="P150" s="12"/>
-      <c r="Q150" s="12"/>
-      <c r="R150" s="12"/>
-      <c r="S150" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T150" s="13" t="s">
+      <c r="I150" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J150" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K150" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L150" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T150" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="U150" s="12"/>
-      <c r="V150" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W150" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X150" s="15">
+      <c r="U150" s="14"/>
+      <c r="V150" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W150" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X150" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A151" s="14">
+      <c r="A151" s="16">
         <v>42863.764543738427</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="13" t="s">
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I151" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J151" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K151" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L151" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
-      <c r="O151" s="12"/>
-      <c r="P151" s="12"/>
-      <c r="Q151" s="12"/>
-      <c r="R151" s="12"/>
-      <c r="S151" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T151" s="12"/>
-      <c r="U151" s="12"/>
-      <c r="V151" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W151" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X151" s="15">
+      <c r="I151" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J151" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K151" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L151" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="14"/>
+      <c r="R151" s="14"/>
+      <c r="S151" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T151" s="14"/>
+      <c r="U151" s="14"/>
+      <c r="V151" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W151" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X151" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A152" s="14">
+      <c r="A152" s="16">
         <v>42863.768449687501</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="13" t="s">
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I152" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J152" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K152" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L152" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
-      <c r="O152" s="12"/>
-      <c r="P152" s="12"/>
-      <c r="Q152" s="12"/>
-      <c r="R152" s="12"/>
-      <c r="S152" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T152" s="12"/>
-      <c r="U152" s="12"/>
-      <c r="V152" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W152" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X152" s="15">
+      <c r="I152" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J152" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K152" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+      <c r="R152" s="14"/>
+      <c r="S152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T152" s="14"/>
+      <c r="U152" s="14"/>
+      <c r="V152" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W152" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X152" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A153" s="14">
+      <c r="A153" s="16">
         <v>42863.770601747688</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="13" t="s">
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I153" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J153" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K153" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L153" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
-      <c r="O153" s="12"/>
-      <c r="P153" s="12"/>
-      <c r="Q153" s="12"/>
-      <c r="R153" s="12"/>
-      <c r="S153" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T153" s="13" t="s">
+      <c r="I153" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K153" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L153" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+      <c r="R153" s="14"/>
+      <c r="S153" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T153" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="U153" s="12"/>
-      <c r="V153" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W153" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X153" s="15">
+      <c r="U153" s="14"/>
+      <c r="V153" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W153" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X153" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A154" s="14">
+      <c r="A154" s="16">
         <v>42863.790347499998</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="13" t="s">
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I154" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J154" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K154" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L154" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
-      <c r="O154" s="12"/>
-      <c r="P154" s="12"/>
-      <c r="Q154" s="12"/>
-      <c r="R154" s="12"/>
-      <c r="S154" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T154" s="12"/>
-      <c r="U154" s="12"/>
-      <c r="V154" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W154" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X154" s="15">
+      <c r="I154" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J154" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K154" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L154" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="14"/>
+      <c r="P154" s="14"/>
+      <c r="Q154" s="14"/>
+      <c r="R154" s="14"/>
+      <c r="S154" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T154" s="14"/>
+      <c r="U154" s="14"/>
+      <c r="V154" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W154" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X154" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A155" s="14">
+      <c r="A155" s="16">
         <v>42863.790514293985</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="13" t="s">
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I155" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J155" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K155" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L155" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
-      <c r="O155" s="12"/>
-      <c r="P155" s="12"/>
-      <c r="Q155" s="12"/>
-      <c r="R155" s="12"/>
-      <c r="S155" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T155" s="12"/>
-      <c r="U155" s="12"/>
-      <c r="V155" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W155" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X155" s="15">
+      <c r="I155" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J155" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K155" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L155" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+      <c r="R155" s="14"/>
+      <c r="S155" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T155" s="14"/>
+      <c r="U155" s="14"/>
+      <c r="V155" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W155" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X155" s="17">
         <v>0.4</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A156" s="14">
+      <c r="A156" s="16">
         <v>42863.792158460652</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="13" t="s">
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I156" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J156" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K156" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L156" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M156" s="12"/>
-      <c r="N156" s="12"/>
-      <c r="O156" s="12"/>
-      <c r="P156" s="12"/>
-      <c r="Q156" s="12"/>
-      <c r="R156" s="12"/>
-      <c r="S156" s="12"/>
-      <c r="T156" s="12"/>
-      <c r="U156" s="12"/>
-      <c r="V156" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W156" s="12"/>
-      <c r="X156" s="12"/>
+      <c r="I156" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J156" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K156" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+      <c r="R156" s="14"/>
+      <c r="S156" s="14"/>
+      <c r="T156" s="14"/>
+      <c r="U156" s="14"/>
+      <c r="V156" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W156" s="14"/>
+      <c r="X156" s="14"/>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A157" s="14">
+      <c r="A157" s="16">
         <v>42863.797104907411</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="13" t="s">
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I157" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J157" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K157" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L157" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
-      <c r="O157" s="12"/>
-      <c r="P157" s="12"/>
-      <c r="Q157" s="12"/>
-      <c r="R157" s="12"/>
-      <c r="S157" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T157" s="12"/>
-      <c r="U157" s="12"/>
-      <c r="V157" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W157" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X157" s="15">
+      <c r="I157" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J157" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K157" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M157" s="14"/>
+      <c r="N157" s="14"/>
+      <c r="O157" s="14"/>
+      <c r="P157" s="14"/>
+      <c r="Q157" s="14"/>
+      <c r="R157" s="14"/>
+      <c r="S157" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T157" s="14"/>
+      <c r="U157" s="14"/>
+      <c r="V157" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W157" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X157" s="17">
         <v>0.09</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A158" s="14">
+      <c r="A158" s="16">
         <v>42863.797239652777</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="13" t="s">
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I158" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J158" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K158" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L158" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M158" s="12"/>
-      <c r="N158" s="12"/>
-      <c r="O158" s="12"/>
-      <c r="P158" s="12"/>
-      <c r="Q158" s="12"/>
-      <c r="R158" s="12"/>
-      <c r="S158" s="12"/>
-      <c r="T158" s="12"/>
-      <c r="U158" s="12"/>
-      <c r="V158" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W158" s="12"/>
-      <c r="X158" s="12"/>
+      <c r="I158" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J158" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K158" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L158" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+      <c r="R158" s="14"/>
+      <c r="S158" s="14"/>
+      <c r="T158" s="14"/>
+      <c r="U158" s="14"/>
+      <c r="V158" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W158" s="14"/>
+      <c r="X158" s="14"/>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A159" s="14">
+      <c r="A159" s="16">
         <v>42863.805010439813</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="13" t="s">
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I159" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J159" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K159" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L159" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M159" s="12"/>
-      <c r="N159" s="12"/>
-      <c r="O159" s="12"/>
-      <c r="P159" s="12"/>
-      <c r="Q159" s="12"/>
-      <c r="R159" s="12"/>
-      <c r="S159" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T159" s="12"/>
-      <c r="U159" s="12"/>
-      <c r="V159" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W159" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X159" s="15">
+      <c r="I159" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K159" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L159" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M159" s="14"/>
+      <c r="N159" s="14"/>
+      <c r="O159" s="14"/>
+      <c r="P159" s="14"/>
+      <c r="Q159" s="14"/>
+      <c r="R159" s="14"/>
+      <c r="S159" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T159" s="14"/>
+      <c r="U159" s="14"/>
+      <c r="V159" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W159" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X159" s="17">
         <v>0.49</v>
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A160" s="14">
+      <c r="A160" s="16">
         <v>42863.807230034727</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="13" t="s">
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I160" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J160" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K160" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L160" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
-      <c r="O160" s="12"/>
-      <c r="P160" s="12"/>
-      <c r="Q160" s="12"/>
-      <c r="R160" s="12"/>
-      <c r="S160" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T160" s="12"/>
-      <c r="U160" s="12"/>
-      <c r="V160" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W160" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X160" s="15">
+      <c r="I160" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J160" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K160" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L160" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M160" s="14"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="14"/>
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+      <c r="R160" s="14"/>
+      <c r="S160" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T160" s="14"/>
+      <c r="U160" s="14"/>
+      <c r="V160" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W160" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X160" s="17">
         <v>0.4</v>
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A161" s="14">
+      <c r="A161" s="16">
         <v>42863.826653634256</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="13" t="s">
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I161" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J161" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K161" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L161" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M161" s="12"/>
-      <c r="N161" s="12"/>
-      <c r="O161" s="12"/>
-      <c r="P161" s="12"/>
-      <c r="Q161" s="12"/>
-      <c r="R161" s="12"/>
-      <c r="S161" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T161" s="13" t="s">
+      <c r="I161" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J161" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K161" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L161" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14"/>
+      <c r="O161" s="14"/>
+      <c r="P161" s="14"/>
+      <c r="Q161" s="14"/>
+      <c r="R161" s="14"/>
+      <c r="S161" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T161" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="U161" s="12"/>
-      <c r="V161" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W161" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X161" s="15">
+      <c r="U161" s="14"/>
+      <c r="V161" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W161" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X161" s="17">
         <v>0.01</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A162" s="14">
+      <c r="A162" s="16">
         <v>42863.829332407404</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="13" t="s">
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I162" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J162" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K162" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L162" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
-      <c r="O162" s="12"/>
-      <c r="P162" s="12"/>
-      <c r="Q162" s="12"/>
-      <c r="R162" s="12"/>
-      <c r="S162" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T162" s="12"/>
-      <c r="U162" s="12"/>
-      <c r="V162" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W162" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X162" s="15">
+      <c r="I162" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J162" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K162" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L162" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M162" s="14"/>
+      <c r="N162" s="14"/>
+      <c r="O162" s="14"/>
+      <c r="P162" s="14"/>
+      <c r="Q162" s="14"/>
+      <c r="R162" s="14"/>
+      <c r="S162" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T162" s="14"/>
+      <c r="U162" s="14"/>
+      <c r="V162" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W162" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X162" s="17">
         <v>0.04</v>
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A163" s="14">
+      <c r="A163" s="16">
         <v>42863.858430451393</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E163" s="13" t="s">
+      <c r="E163" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F163" s="13" t="s">
+      <c r="F163" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G163" s="13" t="s">
+      <c r="G163" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="12"/>
-      <c r="O163" s="12"/>
-      <c r="P163" s="12"/>
-      <c r="Q163" s="12"/>
-      <c r="R163" s="12"/>
-      <c r="S163" s="12"/>
-      <c r="T163" s="12"/>
-      <c r="U163" s="13" t="s">
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14"/>
+      <c r="O163" s="14"/>
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+      <c r="R163" s="14"/>
+      <c r="S163" s="14"/>
+      <c r="T163" s="14"/>
+      <c r="U163" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="V163" s="12"/>
-      <c r="W163" s="12"/>
-      <c r="X163" s="12"/>
+      <c r="V163" s="14"/>
+      <c r="W163" s="14"/>
+      <c r="X163" s="14"/>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A164" s="14">
+      <c r="A164" s="16">
         <v>42863.860908460643</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="13" t="s">
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I164" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J164" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K164" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L164" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
-      <c r="O164" s="12"/>
-      <c r="P164" s="12"/>
-      <c r="Q164" s="12"/>
-      <c r="R164" s="12"/>
-      <c r="S164" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T164" s="12"/>
-      <c r="U164" s="12"/>
-      <c r="V164" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W164" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X164" s="15">
+      <c r="I164" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J164" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K164" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L164" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M164" s="14"/>
+      <c r="N164" s="14"/>
+      <c r="O164" s="14"/>
+      <c r="P164" s="14"/>
+      <c r="Q164" s="14"/>
+      <c r="R164" s="14"/>
+      <c r="S164" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T164" s="14"/>
+      <c r="U164" s="14"/>
+      <c r="V164" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W164" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X164" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A165" s="14">
+      <c r="A165" s="16">
         <v>42863.873510949074</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="13" t="s">
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I165" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J165" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K165" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L165" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
-      <c r="O165" s="12"/>
-      <c r="P165" s="12"/>
-      <c r="Q165" s="12"/>
-      <c r="R165" s="12"/>
-      <c r="S165" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T165" s="12"/>
-      <c r="U165" s="12"/>
-      <c r="V165" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W165" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X165" s="15">
+      <c r="I165" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L165" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" s="14"/>
+      <c r="N165" s="14"/>
+      <c r="O165" s="14"/>
+      <c r="P165" s="14"/>
+      <c r="Q165" s="14"/>
+      <c r="R165" s="14"/>
+      <c r="S165" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T165" s="14"/>
+      <c r="U165" s="14"/>
+      <c r="V165" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W165" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X165" s="17">
         <v>0.32</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A166" s="14">
+      <c r="A166" s="16">
         <v>42863.88618987269</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="13" t="s">
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I166" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J166" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K166" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L166" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M166" s="12"/>
-      <c r="N166" s="12"/>
-      <c r="O166" s="12"/>
-      <c r="P166" s="12"/>
-      <c r="Q166" s="12"/>
-      <c r="R166" s="12"/>
-      <c r="S166" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T166" s="12"/>
-      <c r="U166" s="12"/>
-      <c r="V166" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W166" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X166" s="15">
+      <c r="I166" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J166" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K166" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L166" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M166" s="14"/>
+      <c r="N166" s="14"/>
+      <c r="O166" s="14"/>
+      <c r="P166" s="14"/>
+      <c r="Q166" s="14"/>
+      <c r="R166" s="14"/>
+      <c r="S166" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T166" s="14"/>
+      <c r="U166" s="14"/>
+      <c r="V166" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W166" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X166" s="17">
         <v>0.2</v>
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A167" s="14">
+      <c r="A167" s="16">
         <v>42863.902305949072</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="13" t="s">
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I167" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J167" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K167" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L167" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M167" s="12"/>
-      <c r="N167" s="12"/>
-      <c r="O167" s="12"/>
-      <c r="P167" s="12"/>
-      <c r="Q167" s="12"/>
-      <c r="R167" s="12"/>
-      <c r="S167" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T167" s="12"/>
-      <c r="U167" s="12"/>
-      <c r="V167" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W167" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X167" s="15">
+      <c r="I167" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J167" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K167" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L167" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14"/>
+      <c r="O167" s="14"/>
+      <c r="P167" s="14"/>
+      <c r="Q167" s="14"/>
+      <c r="R167" s="14"/>
+      <c r="S167" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T167" s="14"/>
+      <c r="U167" s="14"/>
+      <c r="V167" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W167" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X167" s="17">
         <v>0.98</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A168" s="14">
+      <c r="A168" s="16">
         <v>42863.927885381941</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="13" t="s">
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I168" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J168" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K168" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L168" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M168" s="12"/>
-      <c r="N168" s="12"/>
-      <c r="O168" s="12"/>
-      <c r="P168" s="12"/>
-      <c r="Q168" s="12"/>
-      <c r="R168" s="12"/>
-      <c r="S168" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T168" s="13" t="s">
+      <c r="I168" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J168" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K168" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L168" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M168" s="14"/>
+      <c r="N168" s="14"/>
+      <c r="O168" s="14"/>
+      <c r="P168" s="14"/>
+      <c r="Q168" s="14"/>
+      <c r="R168" s="14"/>
+      <c r="S168" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T168" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="U168" s="12"/>
-      <c r="V168" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W168" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X168" s="15">
+      <c r="U168" s="14"/>
+      <c r="V168" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W168" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X168" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A169" s="14">
+      <c r="A169" s="16">
         <v>42863.929585659724</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="13" t="s">
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I169" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J169" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K169" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L169" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M169" s="12"/>
-      <c r="N169" s="12"/>
-      <c r="O169" s="12"/>
-      <c r="P169" s="12"/>
-      <c r="Q169" s="12"/>
-      <c r="R169" s="12"/>
-      <c r="S169" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T169" s="12"/>
-      <c r="U169" s="12"/>
-      <c r="V169" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W169" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X169" s="15">
+      <c r="I169" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J169" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K169" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L169" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14"/>
+      <c r="O169" s="14"/>
+      <c r="P169" s="14"/>
+      <c r="Q169" s="14"/>
+      <c r="R169" s="14"/>
+      <c r="S169" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T169" s="14"/>
+      <c r="U169" s="14"/>
+      <c r="V169" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W169" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X169" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A170" s="14">
+      <c r="A170" s="16">
         <v>42863.932592881945</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="13" t="s">
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I170" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J170" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K170" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L170" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M170" s="12"/>
-      <c r="N170" s="12"/>
-      <c r="O170" s="12"/>
-      <c r="P170" s="12"/>
-      <c r="Q170" s="12"/>
-      <c r="R170" s="12"/>
-      <c r="S170" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T170" s="12"/>
-      <c r="U170" s="12"/>
-      <c r="V170" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W170" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X170" s="15">
+      <c r="I170" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J170" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K170" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L170" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M170" s="14"/>
+      <c r="N170" s="14"/>
+      <c r="O170" s="14"/>
+      <c r="P170" s="14"/>
+      <c r="Q170" s="14"/>
+      <c r="R170" s="14"/>
+      <c r="S170" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T170" s="14"/>
+      <c r="U170" s="14"/>
+      <c r="V170" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W170" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X170" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A171" s="14">
+      <c r="A171" s="16">
         <v>42863.946510416667</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="13" t="s">
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I171" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J171" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K171" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L171" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M171" s="12"/>
-      <c r="N171" s="12"/>
-      <c r="O171" s="12"/>
-      <c r="P171" s="12"/>
-      <c r="Q171" s="12"/>
-      <c r="R171" s="12"/>
-      <c r="S171" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T171" s="12"/>
-      <c r="U171" s="12"/>
-      <c r="V171" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W171" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X171" s="15">
+      <c r="I171" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J171" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K171" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L171" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M171" s="14"/>
+      <c r="N171" s="14"/>
+      <c r="O171" s="14"/>
+      <c r="P171" s="14"/>
+      <c r="Q171" s="14"/>
+      <c r="R171" s="14"/>
+      <c r="S171" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T171" s="14"/>
+      <c r="U171" s="14"/>
+      <c r="V171" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W171" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X171" s="17">
         <v>0.08</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A172" s="14">
+      <c r="A172" s="16">
         <v>42863.947216296292</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="13" t="s">
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I172" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J172" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K172" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L172" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M172" s="12"/>
-      <c r="N172" s="12"/>
-      <c r="O172" s="12"/>
-      <c r="P172" s="12"/>
-      <c r="Q172" s="12"/>
-      <c r="R172" s="12"/>
-      <c r="S172" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T172" s="13" t="s">
+      <c r="I172" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J172" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K172" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L172" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M172" s="14"/>
+      <c r="N172" s="14"/>
+      <c r="O172" s="14"/>
+      <c r="P172" s="14"/>
+      <c r="Q172" s="14"/>
+      <c r="R172" s="14"/>
+      <c r="S172" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T172" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="U172" s="12"/>
-      <c r="V172" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W172" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X172" s="15">
+      <c r="U172" s="14"/>
+      <c r="V172" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W172" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X172" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A173" s="14">
+      <c r="A173" s="16">
         <v>42863.953145601852</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="13" t="s">
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I173" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K173" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L173" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M173" s="12"/>
-      <c r="N173" s="12"/>
-      <c r="O173" s="12"/>
-      <c r="P173" s="12"/>
-      <c r="Q173" s="12"/>
-      <c r="R173" s="12"/>
-      <c r="S173" s="12"/>
-      <c r="T173" s="12"/>
-      <c r="U173" s="12"/>
-      <c r="V173" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W173" s="12"/>
-      <c r="X173" s="12"/>
+      <c r="I173" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J173" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K173" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L173" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M173" s="14"/>
+      <c r="N173" s="14"/>
+      <c r="O173" s="14"/>
+      <c r="P173" s="14"/>
+      <c r="Q173" s="14"/>
+      <c r="R173" s="14"/>
+      <c r="S173" s="14"/>
+      <c r="T173" s="14"/>
+      <c r="U173" s="14"/>
+      <c r="V173" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W173" s="14"/>
+      <c r="X173" s="14"/>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A174" s="14">
+      <c r="A174" s="16">
         <v>42863.962146342594</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B174" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="13" t="s">
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I174" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K174" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L174" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
-      <c r="O174" s="12"/>
-      <c r="P174" s="12"/>
-      <c r="Q174" s="12"/>
-      <c r="R174" s="12"/>
-      <c r="S174" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T174" s="13" t="s">
+      <c r="I174" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J174" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K174" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L174" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M174" s="14"/>
+      <c r="N174" s="14"/>
+      <c r="O174" s="14"/>
+      <c r="P174" s="14"/>
+      <c r="Q174" s="14"/>
+      <c r="R174" s="14"/>
+      <c r="S174" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T174" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="U174" s="12"/>
-      <c r="V174" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W174" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X174" s="15">
+      <c r="U174" s="14"/>
+      <c r="V174" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W174" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X174" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A175" s="14">
+      <c r="A175" s="16">
         <v>42863.985543958333</v>
       </c>
-      <c r="B175" s="13" t="s">
+      <c r="B175" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="13" t="s">
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I175" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K175" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L175" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
-      <c r="O175" s="12"/>
-      <c r="P175" s="12"/>
-      <c r="Q175" s="12"/>
-      <c r="R175" s="12"/>
-      <c r="S175" s="12"/>
-      <c r="T175" s="12"/>
-      <c r="U175" s="12"/>
-      <c r="V175" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W175" s="12"/>
-      <c r="X175" s="12"/>
+      <c r="I175" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J175" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K175" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L175" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M175" s="14"/>
+      <c r="N175" s="14"/>
+      <c r="O175" s="14"/>
+      <c r="P175" s="14"/>
+      <c r="Q175" s="14"/>
+      <c r="R175" s="14"/>
+      <c r="S175" s="14"/>
+      <c r="T175" s="14"/>
+      <c r="U175" s="14"/>
+      <c r="V175" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W175" s="14"/>
+      <c r="X175" s="14"/>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A176" s="14">
+      <c r="A176" s="16">
         <v>42864.00134195602</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="13" t="s">
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I176" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J176" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K176" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L176" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
-      <c r="O176" s="12"/>
-      <c r="P176" s="12"/>
-      <c r="Q176" s="12"/>
-      <c r="R176" s="12"/>
-      <c r="S176" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T176" s="12"/>
-      <c r="U176" s="12"/>
-      <c r="V176" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W176" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X176" s="15">
+      <c r="I176" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J176" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K176" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L176" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14"/>
+      <c r="O176" s="14"/>
+      <c r="P176" s="14"/>
+      <c r="Q176" s="14"/>
+      <c r="R176" s="14"/>
+      <c r="S176" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T176" s="14"/>
+      <c r="U176" s="14"/>
+      <c r="V176" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W176" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X176" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A177" s="14">
+      <c r="A177" s="16">
         <v>42864.040499513889</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="13" t="s">
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I177" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J177" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K177" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L177" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
-      <c r="O177" s="12"/>
-      <c r="P177" s="12"/>
-      <c r="Q177" s="12"/>
-      <c r="R177" s="12"/>
-      <c r="S177" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T177" s="12"/>
-      <c r="U177" s="12"/>
-      <c r="V177" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W177" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X177" s="15">
+      <c r="I177" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J177" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K177" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L177" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M177" s="14"/>
+      <c r="N177" s="14"/>
+      <c r="O177" s="14"/>
+      <c r="P177" s="14"/>
+      <c r="Q177" s="14"/>
+      <c r="R177" s="14"/>
+      <c r="S177" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T177" s="14"/>
+      <c r="U177" s="14"/>
+      <c r="V177" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W177" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X177" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A178" s="14">
+      <c r="A178" s="16">
         <v>42864.098100266201</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="12"/>
-      <c r="H178" s="13" t="s">
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I178" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J178" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K178" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L178" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M178" s="12"/>
-      <c r="N178" s="12"/>
-      <c r="O178" s="12"/>
-      <c r="P178" s="12"/>
-      <c r="Q178" s="12"/>
-      <c r="R178" s="12"/>
-      <c r="S178" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T178" s="12"/>
-      <c r="U178" s="12"/>
-      <c r="V178" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W178" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X178" s="15">
+      <c r="I178" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J178" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K178" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L178" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M178" s="14"/>
+      <c r="N178" s="14"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="14"/>
+      <c r="Q178" s="14"/>
+      <c r="R178" s="14"/>
+      <c r="S178" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T178" s="14"/>
+      <c r="U178" s="14"/>
+      <c r="V178" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W178" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X178" s="17">
         <v>0.75</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A179" s="14">
+      <c r="A179" s="16">
         <v>42864.335281724532</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="13" t="s">
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I179" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J179" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K179" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L179" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M179" s="12"/>
-      <c r="N179" s="12"/>
-      <c r="O179" s="12"/>
-      <c r="P179" s="12"/>
-      <c r="Q179" s="12"/>
-      <c r="R179" s="12"/>
-      <c r="S179" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T179" s="12"/>
-      <c r="U179" s="12"/>
-      <c r="V179" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W179" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X179" s="15">
+      <c r="I179" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J179" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K179" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L179" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14"/>
+      <c r="O179" s="14"/>
+      <c r="P179" s="14"/>
+      <c r="Q179" s="14"/>
+      <c r="R179" s="14"/>
+      <c r="S179" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T179" s="14"/>
+      <c r="U179" s="14"/>
+      <c r="V179" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W179" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X179" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A180" s="14">
+      <c r="A180" s="16">
         <v>42864.335748807869</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="13" t="s">
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I180" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J180" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K180" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L180" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M180" s="12"/>
-      <c r="N180" s="12"/>
-      <c r="O180" s="12"/>
-      <c r="P180" s="12"/>
-      <c r="Q180" s="12"/>
-      <c r="R180" s="12"/>
-      <c r="S180" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T180" s="13" t="s">
+      <c r="I180" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J180" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K180" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L180" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M180" s="14"/>
+      <c r="N180" s="14"/>
+      <c r="O180" s="14"/>
+      <c r="P180" s="14"/>
+      <c r="Q180" s="14"/>
+      <c r="R180" s="14"/>
+      <c r="S180" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T180" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="U180" s="12"/>
-      <c r="V180" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W180" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X180" s="15">
+      <c r="U180" s="14"/>
+      <c r="V180" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W180" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X180" s="17">
         <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A181" s="14">
+      <c r="A181" s="16">
         <v>42864.360672152776</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="13" t="s">
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I181" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J181" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K181" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L181" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M181" s="12"/>
-      <c r="N181" s="12"/>
-      <c r="O181" s="12"/>
-      <c r="P181" s="12"/>
-      <c r="Q181" s="12"/>
-      <c r="R181" s="12"/>
-      <c r="S181" s="12"/>
-      <c r="T181" s="12"/>
-      <c r="U181" s="12"/>
-      <c r="V181" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W181" s="12"/>
-      <c r="X181" s="12"/>
+      <c r="I181" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J181" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K181" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L181" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
+      <c r="Q181" s="14"/>
+      <c r="R181" s="14"/>
+      <c r="S181" s="14"/>
+      <c r="T181" s="14"/>
+      <c r="U181" s="14"/>
+      <c r="V181" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W181" s="14"/>
+      <c r="X181" s="14"/>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A182" s="14">
+      <c r="A182" s="16">
         <v>42864.366193900467</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="13" t="s">
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I182" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J182" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K182" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L182" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M182" s="12"/>
-      <c r="N182" s="12"/>
-      <c r="O182" s="12"/>
-      <c r="P182" s="12"/>
-      <c r="Q182" s="12"/>
-      <c r="R182" s="12"/>
-      <c r="S182" s="12"/>
-      <c r="T182" s="12"/>
-      <c r="U182" s="12"/>
-      <c r="V182" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W182" s="12"/>
-      <c r="X182" s="12"/>
+      <c r="I182" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J182" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K182" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L182" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
+      <c r="Q182" s="14"/>
+      <c r="R182" s="14"/>
+      <c r="S182" s="14"/>
+      <c r="T182" s="14"/>
+      <c r="U182" s="14"/>
+      <c r="V182" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W182" s="14"/>
+      <c r="X182" s="14"/>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A183" s="14">
+      <c r="A183" s="16">
         <v>42864.390492442129</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B183" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="13" t="s">
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I183" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J183" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K183" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L183" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M183" s="12"/>
-      <c r="N183" s="12"/>
-      <c r="O183" s="12"/>
-      <c r="P183" s="12"/>
-      <c r="Q183" s="12"/>
-      <c r="R183" s="12"/>
-      <c r="S183" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T183" s="13" t="s">
+      <c r="I183" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J183" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K183" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L183" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M183" s="14"/>
+      <c r="N183" s="14"/>
+      <c r="O183" s="14"/>
+      <c r="P183" s="14"/>
+      <c r="Q183" s="14"/>
+      <c r="R183" s="14"/>
+      <c r="S183" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T183" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="U183" s="12"/>
-      <c r="V183" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W183" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X183" s="15">
+      <c r="U183" s="14"/>
+      <c r="V183" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W183" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X183" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A184" s="14">
+      <c r="A184" s="16">
         <v>42864.423522627316</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="13" t="s">
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I184" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J184" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K184" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L184" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M184" s="12"/>
-      <c r="N184" s="12"/>
-      <c r="O184" s="12"/>
-      <c r="P184" s="12"/>
-      <c r="Q184" s="12"/>
-      <c r="R184" s="12"/>
-      <c r="S184" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T184" s="12"/>
-      <c r="U184" s="12"/>
-      <c r="V184" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W184" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X184" s="15">
+      <c r="I184" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J184" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K184" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L184" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M184" s="14"/>
+      <c r="N184" s="14"/>
+      <c r="O184" s="14"/>
+      <c r="P184" s="14"/>
+      <c r="Q184" s="14"/>
+      <c r="R184" s="14"/>
+      <c r="S184" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T184" s="14"/>
+      <c r="U184" s="14"/>
+      <c r="V184" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W184" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X184" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A185" s="14">
+      <c r="A185" s="16">
         <v>42864.439305949076</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B185" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="13" t="s">
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I185" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J185" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K185" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L185" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M185" s="12"/>
-      <c r="N185" s="12"/>
-      <c r="O185" s="12"/>
-      <c r="P185" s="12"/>
-      <c r="Q185" s="12"/>
-      <c r="R185" s="12"/>
-      <c r="S185" s="12"/>
-      <c r="T185" s="12"/>
-      <c r="U185" s="12"/>
-      <c r="V185" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W185" s="12"/>
-      <c r="X185" s="12"/>
+      <c r="I185" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J185" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K185" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L185" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M185" s="14"/>
+      <c r="N185" s="14"/>
+      <c r="O185" s="14"/>
+      <c r="P185" s="14"/>
+      <c r="Q185" s="14"/>
+      <c r="R185" s="14"/>
+      <c r="S185" s="14"/>
+      <c r="T185" s="14"/>
+      <c r="U185" s="14"/>
+      <c r="V185" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W185" s="14"/>
+      <c r="X185" s="14"/>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A186" s="14">
+      <c r="A186" s="16">
         <v>42864.476875081018</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D186" s="13" t="s">
+      <c r="D186" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E186" s="13" t="s">
+      <c r="E186" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F186" s="13" t="s">
+      <c r="F186" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G186" s="13" t="s">
+      <c r="G186" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
-      <c r="M186" s="12"/>
-      <c r="N186" s="12"/>
-      <c r="O186" s="12"/>
-      <c r="P186" s="12"/>
-      <c r="Q186" s="12"/>
-      <c r="R186" s="12"/>
-      <c r="S186" s="12"/>
-      <c r="T186" s="12"/>
-      <c r="U186" s="13" t="s">
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="14"/>
+      <c r="L186" s="14"/>
+      <c r="M186" s="14"/>
+      <c r="N186" s="14"/>
+      <c r="O186" s="14"/>
+      <c r="P186" s="14"/>
+      <c r="Q186" s="14"/>
+      <c r="R186" s="14"/>
+      <c r="S186" s="14"/>
+      <c r="T186" s="14"/>
+      <c r="U186" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="V186" s="12"/>
-      <c r="W186" s="12"/>
-      <c r="X186" s="12"/>
+      <c r="V186" s="14"/>
+      <c r="W186" s="14"/>
+      <c r="X186" s="14"/>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A187" s="14">
+      <c r="A187" s="16">
         <v>42864.579210162032</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="13" t="s">
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I187" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J187" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K187" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L187" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M187" s="12"/>
-      <c r="N187" s="12"/>
-      <c r="O187" s="12"/>
-      <c r="P187" s="12"/>
-      <c r="Q187" s="12"/>
-      <c r="R187" s="12"/>
-      <c r="S187" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T187" s="12"/>
-      <c r="U187" s="12"/>
-      <c r="V187" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W187" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X187" s="15">
+      <c r="I187" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J187" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K187" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L187" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M187" s="14"/>
+      <c r="N187" s="14"/>
+      <c r="O187" s="14"/>
+      <c r="P187" s="14"/>
+      <c r="Q187" s="14"/>
+      <c r="R187" s="14"/>
+      <c r="S187" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T187" s="14"/>
+      <c r="U187" s="14"/>
+      <c r="V187" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W187" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X187" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A188" s="14">
+      <c r="A188" s="16">
         <v>42864.596655150468</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="13" t="s">
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+      <c r="H188" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I188" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J188" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K188" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L188" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M188" s="12"/>
-      <c r="N188" s="12"/>
-      <c r="O188" s="12"/>
-      <c r="P188" s="12"/>
-      <c r="Q188" s="12"/>
-      <c r="R188" s="12"/>
-      <c r="S188" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T188" s="12"/>
-      <c r="U188" s="12"/>
-      <c r="V188" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W188" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X188" s="15">
+      <c r="I188" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J188" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K188" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L188" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M188" s="14"/>
+      <c r="N188" s="14"/>
+      <c r="O188" s="14"/>
+      <c r="P188" s="14"/>
+      <c r="Q188" s="14"/>
+      <c r="R188" s="14"/>
+      <c r="S188" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T188" s="14"/>
+      <c r="U188" s="14"/>
+      <c r="V188" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W188" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X188" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A189" s="14">
+      <c r="A189" s="16">
         <v>42864.685429803241</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="13" t="s">
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+      <c r="H189" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I189" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J189" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K189" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L189" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M189" s="12"/>
-      <c r="N189" s="12"/>
-      <c r="O189" s="12"/>
-      <c r="P189" s="12"/>
-      <c r="Q189" s="12"/>
-      <c r="R189" s="12"/>
-      <c r="S189" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T189" s="12"/>
-      <c r="U189" s="12"/>
-      <c r="V189" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W189" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X189" s="15">
+      <c r="I189" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J189" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K189" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L189" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M189" s="14"/>
+      <c r="N189" s="14"/>
+      <c r="O189" s="14"/>
+      <c r="P189" s="14"/>
+      <c r="Q189" s="14"/>
+      <c r="R189" s="14"/>
+      <c r="S189" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T189" s="14"/>
+      <c r="U189" s="14"/>
+      <c r="V189" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W189" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X189" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A190" s="14">
+      <c r="A190" s="16">
         <v>42864.698091678241</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="13" t="s">
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I190" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J190" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K190" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L190" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M190" s="12"/>
-      <c r="N190" s="12"/>
-      <c r="O190" s="12"/>
-      <c r="P190" s="12"/>
-      <c r="Q190" s="12"/>
-      <c r="R190" s="12"/>
-      <c r="S190" s="12"/>
-      <c r="T190" s="12"/>
-      <c r="U190" s="12"/>
-      <c r="V190" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W190" s="12"/>
-      <c r="X190" s="12"/>
+      <c r="I190" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J190" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K190" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L190" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M190" s="14"/>
+      <c r="N190" s="14"/>
+      <c r="O190" s="14"/>
+      <c r="P190" s="14"/>
+      <c r="Q190" s="14"/>
+      <c r="R190" s="14"/>
+      <c r="S190" s="14"/>
+      <c r="T190" s="14"/>
+      <c r="U190" s="14"/>
+      <c r="V190" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W190" s="14"/>
+      <c r="X190" s="14"/>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A191" s="14">
+      <c r="A191" s="16">
         <v>42864.723876562501</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="13" t="s">
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I191" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J191" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K191" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L191" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M191" s="12"/>
-      <c r="N191" s="12"/>
-      <c r="O191" s="12"/>
-      <c r="P191" s="12"/>
-      <c r="Q191" s="12"/>
-      <c r="R191" s="12"/>
-      <c r="S191" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T191" s="12"/>
-      <c r="U191" s="12"/>
-      <c r="V191" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W191" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X191" s="15">
+      <c r="I191" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J191" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K191" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L191" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M191" s="14"/>
+      <c r="N191" s="14"/>
+      <c r="O191" s="14"/>
+      <c r="P191" s="14"/>
+      <c r="Q191" s="14"/>
+      <c r="R191" s="14"/>
+      <c r="S191" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T191" s="14"/>
+      <c r="U191" s="14"/>
+      <c r="V191" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W191" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X191" s="17">
         <v>0.02</v>
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A192" s="14">
+      <c r="A192" s="16">
         <v>42864.726879374997</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="13" t="s">
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I192" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J192" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K192" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L192" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M192" s="12"/>
-      <c r="N192" s="12"/>
-      <c r="O192" s="12"/>
-      <c r="P192" s="12"/>
-      <c r="Q192" s="12"/>
-      <c r="R192" s="12"/>
-      <c r="S192" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T192" s="12"/>
-      <c r="U192" s="12"/>
-      <c r="V192" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W192" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X192" s="15">
+      <c r="I192" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J192" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K192" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L192" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M192" s="14"/>
+      <c r="N192" s="14"/>
+      <c r="O192" s="14"/>
+      <c r="P192" s="14"/>
+      <c r="Q192" s="14"/>
+      <c r="R192" s="14"/>
+      <c r="S192" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T192" s="14"/>
+      <c r="U192" s="14"/>
+      <c r="V192" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W192" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X192" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A193" s="14">
+      <c r="A193" s="16">
         <v>42864.738209861112</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="13" t="s">
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I193" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J193" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K193" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L193" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M193" s="12"/>
-      <c r="N193" s="12"/>
-      <c r="O193" s="12"/>
-      <c r="P193" s="12"/>
-      <c r="Q193" s="12"/>
-      <c r="R193" s="12"/>
-      <c r="S193" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T193" s="12"/>
-      <c r="U193" s="12"/>
-      <c r="V193" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W193" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X193" s="15">
+      <c r="I193" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J193" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K193" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L193" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M193" s="14"/>
+      <c r="N193" s="14"/>
+      <c r="O193" s="14"/>
+      <c r="P193" s="14"/>
+      <c r="Q193" s="14"/>
+      <c r="R193" s="14"/>
+      <c r="S193" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T193" s="14"/>
+      <c r="U193" s="14"/>
+      <c r="V193" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W193" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X193" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A194" s="14">
+      <c r="A194" s="16">
         <v>42864.772829791662</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="B194" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="13" t="s">
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I194" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J194" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K194" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L194" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M194" s="12"/>
-      <c r="N194" s="12"/>
-      <c r="O194" s="12"/>
-      <c r="P194" s="12"/>
-      <c r="Q194" s="12"/>
-      <c r="R194" s="12"/>
-      <c r="S194" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T194" s="12"/>
-      <c r="U194" s="12"/>
-      <c r="V194" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W194" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X194" s="15">
+      <c r="I194" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J194" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K194" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L194" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M194" s="14"/>
+      <c r="N194" s="14"/>
+      <c r="O194" s="14"/>
+      <c r="P194" s="14"/>
+      <c r="Q194" s="14"/>
+      <c r="R194" s="14"/>
+      <c r="S194" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T194" s="14"/>
+      <c r="U194" s="14"/>
+      <c r="V194" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W194" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X194" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A195" s="14">
+      <c r="A195" s="16">
         <v>42864.839512708335</v>
       </c>
-      <c r="B195" s="13" t="s">
+      <c r="B195" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
-      <c r="G195" s="12"/>
-      <c r="H195" s="13" t="s">
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I195" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J195" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K195" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L195" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M195" s="12"/>
-      <c r="N195" s="12"/>
-      <c r="O195" s="12"/>
-      <c r="P195" s="12"/>
-      <c r="Q195" s="12"/>
-      <c r="R195" s="12"/>
-      <c r="S195" s="12"/>
-      <c r="T195" s="12"/>
-      <c r="U195" s="12"/>
-      <c r="V195" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W195" s="12"/>
-      <c r="X195" s="12"/>
+      <c r="I195" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J195" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K195" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L195" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M195" s="14"/>
+      <c r="N195" s="14"/>
+      <c r="O195" s="14"/>
+      <c r="P195" s="14"/>
+      <c r="Q195" s="14"/>
+      <c r="R195" s="14"/>
+      <c r="S195" s="14"/>
+      <c r="T195" s="14"/>
+      <c r="U195" s="14"/>
+      <c r="V195" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W195" s="14"/>
+      <c r="X195" s="14"/>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A196" s="14">
+      <c r="A196" s="16">
         <v>42864.907208657409</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B196" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="12"/>
-      <c r="H196" s="13" t="s">
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I196" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J196" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K196" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L196" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M196" s="12"/>
-      <c r="N196" s="12"/>
-      <c r="O196" s="12"/>
-      <c r="P196" s="12"/>
-      <c r="Q196" s="12"/>
-      <c r="R196" s="12"/>
-      <c r="S196" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T196" s="12"/>
-      <c r="U196" s="12"/>
-      <c r="V196" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W196" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X196" s="15">
+      <c r="I196" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J196" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K196" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L196" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M196" s="14"/>
+      <c r="N196" s="14"/>
+      <c r="O196" s="14"/>
+      <c r="P196" s="14"/>
+      <c r="Q196" s="14"/>
+      <c r="R196" s="14"/>
+      <c r="S196" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T196" s="14"/>
+      <c r="U196" s="14"/>
+      <c r="V196" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W196" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X196" s="17">
         <v>0.01</v>
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A197" s="14">
+      <c r="A197" s="16">
         <v>42865.36415415509</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="13" t="s">
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
+      <c r="H197" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I197" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J197" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K197" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L197" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M197" s="12"/>
-      <c r="N197" s="12"/>
-      <c r="O197" s="12"/>
-      <c r="P197" s="12"/>
-      <c r="Q197" s="12"/>
-      <c r="R197" s="12"/>
-      <c r="S197" s="12"/>
-      <c r="T197" s="12"/>
-      <c r="U197" s="12"/>
-      <c r="V197" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W197" s="12"/>
-      <c r="X197" s="12"/>
+      <c r="I197" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J197" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K197" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L197" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M197" s="14"/>
+      <c r="N197" s="14"/>
+      <c r="O197" s="14"/>
+      <c r="P197" s="14"/>
+      <c r="Q197" s="14"/>
+      <c r="R197" s="14"/>
+      <c r="S197" s="14"/>
+      <c r="T197" s="14"/>
+      <c r="U197" s="14"/>
+      <c r="V197" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W197" s="14"/>
+      <c r="X197" s="14"/>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A198" s="14">
+      <c r="A198" s="16">
         <v>42865.376015034723</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B198" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="13" t="s">
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I198" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J198" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K198" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L198" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M198" s="12"/>
-      <c r="N198" s="12"/>
-      <c r="O198" s="12"/>
-      <c r="P198" s="12"/>
-      <c r="Q198" s="12"/>
-      <c r="R198" s="12"/>
-      <c r="S198" s="12"/>
-      <c r="T198" s="12"/>
-      <c r="U198" s="12"/>
-      <c r="V198" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W198" s="12"/>
-      <c r="X198" s="12"/>
+      <c r="I198" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J198" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K198" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L198" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M198" s="14"/>
+      <c r="N198" s="14"/>
+      <c r="O198" s="14"/>
+      <c r="P198" s="14"/>
+      <c r="Q198" s="14"/>
+      <c r="R198" s="14"/>
+      <c r="S198" s="14"/>
+      <c r="T198" s="14"/>
+      <c r="U198" s="14"/>
+      <c r="V198" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W198" s="14"/>
+      <c r="X198" s="14"/>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A199" s="14">
+      <c r="A199" s="16">
         <v>42865.485722592595</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="B199" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="13" t="s">
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I199" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J199" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K199" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L199" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M199" s="12"/>
-      <c r="N199" s="12"/>
-      <c r="O199" s="12"/>
-      <c r="P199" s="12"/>
-      <c r="Q199" s="12"/>
-      <c r="R199" s="12"/>
-      <c r="S199" s="12"/>
-      <c r="T199" s="12"/>
-      <c r="U199" s="12"/>
-      <c r="V199" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W199" s="12"/>
-      <c r="X199" s="12"/>
+      <c r="I199" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J199" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K199" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L199" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M199" s="14"/>
+      <c r="N199" s="14"/>
+      <c r="O199" s="14"/>
+      <c r="P199" s="14"/>
+      <c r="Q199" s="14"/>
+      <c r="R199" s="14"/>
+      <c r="S199" s="14"/>
+      <c r="T199" s="14"/>
+      <c r="U199" s="14"/>
+      <c r="V199" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W199" s="14"/>
+      <c r="X199" s="14"/>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A200" s="14">
+      <c r="A200" s="16">
         <v>42865.504003888884</v>
       </c>
-      <c r="B200" s="13" t="s">
+      <c r="B200" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="13" t="s">
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I200" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J200" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K200" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L200" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
-      <c r="O200" s="12"/>
-      <c r="P200" s="12"/>
-      <c r="Q200" s="12"/>
-      <c r="R200" s="12"/>
-      <c r="S200" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T200" s="12"/>
-      <c r="U200" s="12"/>
-      <c r="V200" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W200" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X200" s="15">
+      <c r="I200" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J200" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K200" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L200" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M200" s="14"/>
+      <c r="N200" s="14"/>
+      <c r="O200" s="14"/>
+      <c r="P200" s="14"/>
+      <c r="Q200" s="14"/>
+      <c r="R200" s="14"/>
+      <c r="S200" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T200" s="14"/>
+      <c r="U200" s="14"/>
+      <c r="V200" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W200" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X200" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A201" s="14">
+      <c r="A201" s="16">
         <v>42865.531079872686</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="B201" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="13" t="s">
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I201" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J201" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K201" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L201" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M201" s="12"/>
-      <c r="N201" s="12"/>
-      <c r="O201" s="12"/>
-      <c r="P201" s="12"/>
-      <c r="Q201" s="12"/>
-      <c r="R201" s="12"/>
-      <c r="S201" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T201" s="12"/>
-      <c r="U201" s="12"/>
-      <c r="V201" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W201" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X201" s="15">
+      <c r="I201" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J201" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K201" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L201" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M201" s="14"/>
+      <c r="N201" s="14"/>
+      <c r="O201" s="14"/>
+      <c r="P201" s="14"/>
+      <c r="Q201" s="14"/>
+      <c r="R201" s="14"/>
+      <c r="S201" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T201" s="14"/>
+      <c r="U201" s="14"/>
+      <c r="V201" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W201" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X201" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A202" s="14">
+      <c r="A202" s="16">
         <v>42865.55378898148</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B202" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="13" t="s">
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I202" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J202" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K202" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L202" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
-      <c r="O202" s="12"/>
-      <c r="P202" s="12"/>
-      <c r="Q202" s="12"/>
-      <c r="R202" s="12"/>
-      <c r="S202" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T202" s="12"/>
-      <c r="U202" s="12"/>
-      <c r="V202" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W202" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X202" s="15">
+      <c r="I202" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J202" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K202" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L202" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M202" s="14"/>
+      <c r="N202" s="14"/>
+      <c r="O202" s="14"/>
+      <c r="P202" s="14"/>
+      <c r="Q202" s="14"/>
+      <c r="R202" s="14"/>
+      <c r="S202" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T202" s="14"/>
+      <c r="U202" s="14"/>
+      <c r="V202" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W202" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X202" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A203" s="14">
+      <c r="A203" s="16">
         <v>42865.60467262732</v>
       </c>
-      <c r="B203" s="13" t="s">
+      <c r="B203" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="12"/>
-      <c r="H203" s="13" t="s">
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I203" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J203" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K203" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L203" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M203" s="12"/>
-      <c r="N203" s="12"/>
-      <c r="O203" s="12"/>
-      <c r="P203" s="12"/>
-      <c r="Q203" s="12"/>
-      <c r="R203" s="12"/>
-      <c r="S203" s="12"/>
-      <c r="T203" s="12"/>
-      <c r="U203" s="12"/>
-      <c r="V203" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W203" s="12"/>
-      <c r="X203" s="12"/>
+      <c r="I203" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J203" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K203" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L203" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M203" s="14"/>
+      <c r="N203" s="14"/>
+      <c r="O203" s="14"/>
+      <c r="P203" s="14"/>
+      <c r="Q203" s="14"/>
+      <c r="R203" s="14"/>
+      <c r="S203" s="14"/>
+      <c r="T203" s="14"/>
+      <c r="U203" s="14"/>
+      <c r="V203" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W203" s="14"/>
+      <c r="X203" s="14"/>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A204" s="14">
+      <c r="A204" s="16">
         <v>42865.785076828703</v>
       </c>
-      <c r="B204" s="13" t="s">
+      <c r="B204" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="13" t="s">
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I204" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J204" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K204" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L204" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M204" s="12"/>
-      <c r="N204" s="12"/>
-      <c r="O204" s="12"/>
-      <c r="P204" s="12"/>
-      <c r="Q204" s="12"/>
-      <c r="R204" s="12"/>
-      <c r="S204" s="12"/>
-      <c r="T204" s="12"/>
-      <c r="U204" s="12"/>
-      <c r="V204" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W204" s="12"/>
-      <c r="X204" s="12"/>
+      <c r="I204" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J204" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K204" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L204" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M204" s="14"/>
+      <c r="N204" s="14"/>
+      <c r="O204" s="14"/>
+      <c r="P204" s="14"/>
+      <c r="Q204" s="14"/>
+      <c r="R204" s="14"/>
+      <c r="S204" s="14"/>
+      <c r="T204" s="14"/>
+      <c r="U204" s="14"/>
+      <c r="V204" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W204" s="14"/>
+      <c r="X204" s="14"/>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A205" s="14">
+      <c r="A205" s="16">
         <v>42865.839157638889</v>
       </c>
-      <c r="B205" s="13" t="s">
+      <c r="B205" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="12"/>
-      <c r="H205" s="13" t="s">
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I205" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J205" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K205" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L205" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M205" s="12"/>
-      <c r="N205" s="12"/>
-      <c r="O205" s="12"/>
-      <c r="P205" s="12"/>
-      <c r="Q205" s="12"/>
-      <c r="R205" s="12"/>
-      <c r="S205" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T205" s="13" t="s">
+      <c r="I205" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J205" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K205" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L205" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M205" s="14"/>
+      <c r="N205" s="14"/>
+      <c r="O205" s="14"/>
+      <c r="P205" s="14"/>
+      <c r="Q205" s="14"/>
+      <c r="R205" s="14"/>
+      <c r="S205" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T205" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="U205" s="12"/>
-      <c r="V205" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W205" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X205" s="15">
+      <c r="U205" s="14"/>
+      <c r="V205" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W205" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X205" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A206" s="14">
+      <c r="A206" s="16">
         <v>42865.962324537039</v>
       </c>
-      <c r="B206" s="13" t="s">
+      <c r="B206" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="13" t="s">
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I206" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J206" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K206" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L206" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M206" s="12"/>
-      <c r="N206" s="12"/>
-      <c r="O206" s="12"/>
-      <c r="P206" s="12"/>
-      <c r="Q206" s="12"/>
-      <c r="R206" s="12"/>
-      <c r="S206" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T206" s="12"/>
-      <c r="U206" s="12"/>
-      <c r="V206" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W206" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X206" s="15">
+      <c r="I206" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J206" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K206" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L206" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M206" s="14"/>
+      <c r="N206" s="14"/>
+      <c r="O206" s="14"/>
+      <c r="P206" s="14"/>
+      <c r="Q206" s="14"/>
+      <c r="R206" s="14"/>
+      <c r="S206" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T206" s="14"/>
+      <c r="U206" s="14"/>
+      <c r="V206" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W206" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X206" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A207" s="14">
+      <c r="A207" s="16">
         <v>42866.347380787032</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B207" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
-      <c r="G207" s="12"/>
-      <c r="H207" s="13" t="s">
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I207" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J207" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K207" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L207" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M207" s="12"/>
-      <c r="N207" s="12"/>
-      <c r="O207" s="12"/>
-      <c r="P207" s="12"/>
-      <c r="Q207" s="12"/>
-      <c r="R207" s="12"/>
-      <c r="S207" s="12"/>
-      <c r="T207" s="12"/>
-      <c r="U207" s="12"/>
-      <c r="V207" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W207" s="12"/>
-      <c r="X207" s="12"/>
+      <c r="I207" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J207" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K207" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L207" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M207" s="14"/>
+      <c r="N207" s="14"/>
+      <c r="O207" s="14"/>
+      <c r="P207" s="14"/>
+      <c r="Q207" s="14"/>
+      <c r="R207" s="14"/>
+      <c r="S207" s="14"/>
+      <c r="T207" s="14"/>
+      <c r="U207" s="14"/>
+      <c r="V207" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W207" s="14"/>
+      <c r="X207" s="14"/>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A208" s="14">
+      <c r="A208" s="16">
         <v>42866.349562523144</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B208" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
-      <c r="G208" s="12"/>
-      <c r="H208" s="13" t="s">
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I208" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J208" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K208" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L208" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M208" s="12"/>
-      <c r="N208" s="12"/>
-      <c r="O208" s="12"/>
-      <c r="P208" s="12"/>
-      <c r="Q208" s="12"/>
-      <c r="R208" s="12"/>
-      <c r="S208" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T208" s="12"/>
-      <c r="U208" s="12"/>
-      <c r="V208" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W208" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X208" s="15">
+      <c r="I208" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J208" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K208" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L208" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M208" s="14"/>
+      <c r="N208" s="14"/>
+      <c r="O208" s="14"/>
+      <c r="P208" s="14"/>
+      <c r="Q208" s="14"/>
+      <c r="R208" s="14"/>
+      <c r="S208" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T208" s="14"/>
+      <c r="U208" s="14"/>
+      <c r="V208" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W208" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X208" s="17">
         <v>0.15</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A209" s="14">
+      <c r="A209" s="16">
         <v>42866.396402094906</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B209" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="12"/>
-      <c r="G209" s="12"/>
-      <c r="H209" s="13" t="s">
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I209" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J209" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K209" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L209" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M209" s="12"/>
-      <c r="N209" s="12"/>
-      <c r="O209" s="12"/>
-      <c r="P209" s="12"/>
-      <c r="Q209" s="12"/>
-      <c r="R209" s="12"/>
-      <c r="S209" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T209" s="12"/>
-      <c r="U209" s="12"/>
-      <c r="V209" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W209" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X209" s="15">
+      <c r="I209" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J209" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K209" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L209" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M209" s="14"/>
+      <c r="N209" s="14"/>
+      <c r="O209" s="14"/>
+      <c r="P209" s="14"/>
+      <c r="Q209" s="14"/>
+      <c r="R209" s="14"/>
+      <c r="S209" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T209" s="14"/>
+      <c r="U209" s="14"/>
+      <c r="V209" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W209" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X209" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A210" s="14">
+      <c r="A210" s="16">
         <v>42866.545192627316</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="13" t="s">
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I210" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J210" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K210" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L210" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M210" s="12"/>
-      <c r="N210" s="12"/>
-      <c r="O210" s="12"/>
-      <c r="P210" s="12"/>
-      <c r="Q210" s="12"/>
-      <c r="R210" s="12"/>
-      <c r="S210" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T210" s="13" t="s">
+      <c r="I210" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J210" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K210" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L210" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M210" s="14"/>
+      <c r="N210" s="14"/>
+      <c r="O210" s="14"/>
+      <c r="P210" s="14"/>
+      <c r="Q210" s="14"/>
+      <c r="R210" s="14"/>
+      <c r="S210" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T210" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="U210" s="12"/>
-      <c r="V210" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W210" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X210" s="15">
+      <c r="U210" s="14"/>
+      <c r="V210" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W210" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X210" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A211" s="14">
+      <c r="A211" s="16">
         <v>42867.059236631947</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="13" t="s">
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I211" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J211" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K211" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L211" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M211" s="12"/>
-      <c r="N211" s="12"/>
-      <c r="O211" s="12"/>
-      <c r="P211" s="12"/>
-      <c r="Q211" s="12"/>
-      <c r="R211" s="12"/>
-      <c r="S211" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T211" s="12"/>
-      <c r="U211" s="12"/>
-      <c r="V211" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W211" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X211" s="15">
+      <c r="I211" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J211" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K211" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L211" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M211" s="14"/>
+      <c r="N211" s="14"/>
+      <c r="O211" s="14"/>
+      <c r="P211" s="14"/>
+      <c r="Q211" s="14"/>
+      <c r="R211" s="14"/>
+      <c r="S211" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T211" s="14"/>
+      <c r="U211" s="14"/>
+      <c r="V211" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W211" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X211" s="17">
         <v>0.05</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A212" s="14">
+      <c r="A212" s="16">
         <v>42870.049567743059</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B212" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="13" t="s">
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I212" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J212" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K212" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L212" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M212" s="12"/>
-      <c r="N212" s="12"/>
-      <c r="O212" s="12"/>
-      <c r="P212" s="12"/>
-      <c r="Q212" s="12"/>
-      <c r="R212" s="12"/>
-      <c r="S212" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T212" s="12"/>
-      <c r="U212" s="12"/>
-      <c r="V212" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W212" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X212" s="15">
+      <c r="I212" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J212" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K212" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L212" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M212" s="14"/>
+      <c r="N212" s="14"/>
+      <c r="O212" s="14"/>
+      <c r="P212" s="14"/>
+      <c r="Q212" s="14"/>
+      <c r="R212" s="14"/>
+      <c r="S212" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T212" s="14"/>
+      <c r="U212" s="14"/>
+      <c r="V212" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W212" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X212" s="17">
         <v>0.8</v>
       </c>
     </row>
@@ -19717,21 +20378,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">AVERAGEIFS(agg!J:J,agg!E:E,TRUE,agg!H:H,TRUE)</f>
         <v>0.22017241379310357</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -19745,7 +20406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -19753,6 +20414,10 @@
         <f ca="1">COUNTIFS(agg!K:K,TRUE,agg!E:E,TRUE,agg!H:H,TRUE)</f>
         <v>99</v>
       </c>
+      <c r="C6" s="13">
+        <f ca="1">B6/(B6+B7)</f>
+        <v>0.85344827586206895</v>
+      </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
@@ -19760,8 +20425,11 @@
         <f ca="1">COUNTIFS(agg!G:G,TRUE,agg!H:H,TRUE)</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -19769,6 +20437,10 @@
         <f ca="1">COUNTIFS(agg!K:K,FALSE,agg!E:E,TRUE,agg!H:H,TRUE)</f>
         <v>17</v>
       </c>
+      <c r="C7" s="13">
+        <f ca="1">1-C6</f>
+        <v>0.14655172413793105</v>
+      </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
@@ -19776,8 +20448,21 @@
         <f>COUNTIFS(agg!P:P,FALSE,agg!J:J,TRUE,agg!M:M,TRUE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f ca="1">B6+B7</f>
+        <v>116</v>
+      </c>
+      <c r="G8">
+        <f ca="1">G6+G7</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -19791,7 +20476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -19799,15 +20484,23 @@
         <f ca="1">COUNTIFS(agg!K:K,TRUE,agg!E:E,TRUE,agg!H:H,TRUE,agg!F:F,TRUE)</f>
         <v>22</v>
       </c>
+      <c r="C13" s="13">
+        <f ca="1">B13/(B13+B14)</f>
+        <v>0.7857142857142857</v>
+      </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
       <c r="G13">
-        <f ca="1">COUNTIFS(agg!I:I,TRUE,agg!E:E,TRUE,agg!H:H,TRUE)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <f ca="1">COUNTIFS(agg!I:I,TRUE,agg!D:D,TRUE,agg!H:H,TRUE)</f>
+        <v>63</v>
+      </c>
+      <c r="H13" s="13">
+        <f ca="1">G13/(G13+G14)</f>
+        <v>0.73255813953488369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -19815,12 +20508,30 @@
         <f ca="1">COUNTIFS(agg!K:K,FALSE,agg!E:E,TRUE,agg!H:H,TRUE,agg!F:F,TRUE)</f>
         <v>6</v>
       </c>
+      <c r="C14" s="13">
+        <f ca="1">1-C13</f>
+        <v>0.2142857142857143</v>
+      </c>
       <c r="F14" t="s">
         <v>31</v>
       </c>
       <c r="G14">
-        <f ca="1">COUNTIFS(agg!I:I,FALSE,agg!E:E,TRUE,agg!H:H,TRUE)</f>
-        <v>29</v>
+        <f ca="1">COUNTIFS(agg!I:I,FALSE,agg!D:D,TRUE,agg!H:H,TRUE)</f>
+        <v>23</v>
+      </c>
+      <c r="H14" s="13">
+        <f ca="1">1-H13</f>
+        <v>0.26744186046511631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f ca="1">B13+B14</f>
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <f ca="1">G13+G14</f>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
